--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E211C6DE-E5FA-4D44-BE8B-A15A873C5868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFFEBC1-0B34-9145-A323-EF97A8F81967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2671">
   <si>
     <t>u</t>
   </si>
@@ -9262,6 +9262,9 @@
   </si>
   <si>
     <t>REPLACE (*deprecated*)</t>
+  </si>
+  <si>
+    <t>component[ autopsyResultsAvailable ].value</t>
   </si>
 </sst>
 </file>
@@ -11851,8 +11854,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -16314,7 +16317,7 @@
         <v>2384</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>2599</v>
+        <v>2670</v>
       </c>
       <c r="J126" s="16" t="s">
         <v>2361</v>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFFEBC1-0B34-9145-A323-EF97A8F81967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C296E-0C05-E34C-8B57-BE4F8DEA08E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11854,8 +11854,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -20253,8 +20253,8 @@
       <c r="J238" s="16" t="s">
         <v>2332</v>
       </c>
-      <c r="K238" s="7" t="s">
-        <v>2595</v>
+      <c r="K238" s="16" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="14">
@@ -67895,7 +67895,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68102,12 +68107,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68117,9 +68117,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68144,9 +68144,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C296E-0C05-E34C-8B57-BE4F8DEA08E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2438A77-2022-534F-BB52-99A0B2D63A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11854,8 +11854,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -20289,8 +20289,8 @@
       <c r="J239" s="16" t="s">
         <v>2332</v>
       </c>
-      <c r="K239" s="7" t="s">
-        <v>2595</v>
+      <c r="K239" s="16" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="14">

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2438A77-2022-534F-BB52-99A0B2D63A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5AD72-53BF-2F44-B762-A8F581D40942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11855,7 +11855,7 @@
   <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A236" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K239" sqref="K239"/>
+      <selection activeCell="I238" sqref="I238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5AD72-53BF-2F44-B762-A8F581D40942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B4B3F-5DB3-2C45-BA7F-9C4C78D37B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2676">
   <si>
     <t>u</t>
   </si>
@@ -9265,6 +9265,21 @@
   </si>
   <si>
     <t>component[ autopsyResultsAvailable ].value</t>
+  </si>
+  <si>
+    <t>component[ FirstOtherAsianLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondOtherAsianLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ FirstOtherPacificIslandLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ FirstOtherRaceLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondOtherRaceLiteral].valueString</t>
   </si>
 </sst>
 </file>
@@ -11854,8 +11869,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I238" sqref="I238"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -14489,7 +14504,7 @@
         <v>2493</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>2516</v>
+        <v>2671</v>
       </c>
       <c r="J73" s="16" t="s">
         <v>2322</v>
@@ -14527,7 +14542,7 @@
         <v>2493</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>2517</v>
+        <v>2672</v>
       </c>
       <c r="J74" s="16" t="s">
         <v>2322</v>
@@ -14565,7 +14580,7 @@
         <v>2493</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>2518</v>
+        <v>2673</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>2322</v>
@@ -14603,7 +14618,7 @@
         <v>2493</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>2519</v>
+        <v>2673</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>2322</v>
@@ -14641,7 +14656,7 @@
         <v>2493</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>2520</v>
+        <v>2674</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>2322</v>
@@ -14679,7 +14694,7 @@
         <v>2493</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>2521</v>
+        <v>2675</v>
       </c>
       <c r="J78" s="16" t="s">
         <v>2322</v>
@@ -18035,7 +18050,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="14">
+    <row r="176" spans="1:12" ht="28">
       <c r="A176" s="15">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -19686,7 +19701,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="14">
+    <row r="223" spans="1:12" ht="28">
       <c r="A223" s="15">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -67895,12 +67910,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68107,7 +68117,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68117,9 +68132,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68144,9 +68159,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B4B3F-5DB3-2C45-BA7F-9C4C78D37B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0A68E-DFEA-4C4F-B571-4B916FB366AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2678">
   <si>
     <t>u</t>
   </si>
@@ -9280,6 +9280,12 @@
   </si>
   <si>
     <t>component[ SecondOtherRaceLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ FirstAmericanIndianorAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondAmericanIndianorAlaskanNativeLiteral].valueString</t>
   </si>
 </sst>
 </file>
@@ -11870,7 +11876,7 @@
   <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -14428,7 +14434,7 @@
         <v>2493</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>2514</v>
+        <v>2676</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>2322</v>
@@ -14466,7 +14472,7 @@
         <v>2493</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>2515</v>
+        <v>2677</v>
       </c>
       <c r="J72" s="16" t="s">
         <v>2322</v>
@@ -18050,7 +18056,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="28">
+    <row r="176" spans="1:12" ht="14">
       <c r="A176" s="15">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -19701,7 +19707,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="28">
+    <row r="223" spans="1:12" ht="14">
       <c r="A223" s="15">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -67910,7 +67916,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68117,12 +68128,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68132,9 +68138,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68159,9 +68165,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0A68E-DFEA-4C4F-B571-4B916FB366AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37594D-0792-7A4D-8BE3-8688AADB5049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="2681">
   <si>
     <t>u</t>
   </si>
@@ -9282,10 +9282,19 @@
     <t>component[ SecondOtherRaceLiteral].valueString</t>
   </si>
   <si>
-    <t>component[ FirstAmericanIndianorAlaskanNativeLiteral].valueString</t>
-  </si>
-  <si>
-    <t>component[ SecondAmericanIndianorAlaskanNativeLiteral].valueString</t>
+    <t>component[ FirstAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead].valueDateTime if a date is also specified, or component[datetimePronouncedDead].valueTime if no date is specified</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead	].valueDateTime</t>
+  </si>
+  <si>
+    <t>dateTime or time</t>
   </si>
 </sst>
 </file>
@@ -11875,8 +11884,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -20269,14 +20278,12 @@
         <v>2407</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>2597</v>
+        <v>2679</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>2332</v>
       </c>
-      <c r="K238" s="16" t="s">
-        <v>2453</v>
-      </c>
+      <c r="K238" s="16"/>
     </row>
     <row r="239" spans="1:12" ht="14">
       <c r="A239" s="15">
@@ -20305,14 +20312,12 @@
         <v>2407</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2598</v>
+        <v>2678</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>2332</v>
-      </c>
-      <c r="K239" s="16" t="s">
-        <v>2453</v>
-      </c>
+        <v>2680</v>
+      </c>
+      <c r="K239" s="16"/>
     </row>
     <row r="240" spans="1:12" ht="14">
       <c r="A240" s="15">
@@ -21765,7 +21770,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440A4221-87BC-6346-98ED-4929CFD2A733}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L168"/>
@@ -42811,7 +42816,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G376"/>
@@ -50384,6 +50389,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53857,7 +53863,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IE368"/>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B4B3F-5DB3-2C45-BA7F-9C4C78D37B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941E4845-F21D-FB4C-ABEE-C3258303671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2677">
   <si>
     <t>u</t>
   </si>
@@ -9273,13 +9273,16 @@
     <t>component[ SecondOtherAsianLiteral].valueString</t>
   </si>
   <si>
-    <t>component[ FirstOtherPacificIslandLiteral].valueString</t>
-  </si>
-  <si>
     <t>component[ FirstOtherRaceLiteral].valueString</t>
   </si>
   <si>
     <t>component[ SecondOtherRaceLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ FirstOtherPacificIslanderLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondOtherPacificIslanderLiteral].valueString</t>
   </si>
 </sst>
 </file>
@@ -11869,8 +11872,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -14580,7 +14583,7 @@
         <v>2493</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>2322</v>
@@ -14618,7 +14621,7 @@
         <v>2493</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>2322</v>
@@ -14656,7 +14659,7 @@
         <v>2493</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>2322</v>
@@ -14694,7 +14697,7 @@
         <v>2493</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="J78" s="16" t="s">
         <v>2322</v>
@@ -18050,7 +18053,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="28">
+    <row r="176" spans="1:12" ht="14">
       <c r="A176" s="15">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -19701,7 +19704,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="28">
+    <row r="223" spans="1:12" ht="14">
       <c r="A223" s="15">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -67910,10 +67913,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68116,30 +68130,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68158,27 +68178,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D0C9B-C939-BC4B-9F5F-12445651310C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE65E62-66F0-064B-99F2-5321AFA74CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="2688">
   <si>
     <t>u</t>
   </si>
@@ -9284,6 +9284,39 @@
   <si>
     <t>component[ SecondOtherPacificIslanderLiteral].valueString</t>
   </si>
+  <si>
+    <t>component[interval].valueString or component[interval].valueQuantity , component[lineNumber] = 1</t>
+  </si>
+  <si>
+    <t>component[interval].valueString or component[interval].valueQuantity, component[lineNumber] = 2</t>
+  </si>
+  <si>
+    <t>component[interval].valueString or component[interval].valueQuantity, component[lineNumber] = 3</t>
+  </si>
+  <si>
+    <t>component[interval].valueString or component[interval].valueQuantity, component[lineNumber] = 4</t>
+  </si>
+  <si>
+    <t>string(20), or Quantity</t>
+  </si>
+  <si>
+    <t>Note: Quantity not yet supported for NCHS Submissions.   [UnitsOfAgeVS]</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead ].valueDateTime</t>
+  </si>
+  <si>
+    <t>dateTime or Time</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead].valueDateTime if a date is also specified, or component[datetimePronouncedDead].valueTime if no date is specified</t>
+  </si>
+  <si>
+    <t>component[ FirstAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
 </sst>
 </file>
 
@@ -9292,7 +9325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9493,6 +9526,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -9919,7 +9958,7 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -10969,6 +11008,9 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11872,8 +11914,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -12802,7 +12844,7 @@
       <c r="J28" s="16" t="s">
         <v>2361</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="16" t="s">
         <v>2404</v>
       </c>
       <c r="L28" s="7" t="s">
@@ -14431,7 +14473,7 @@
         <v>2493</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>2514</v>
+        <v>2686</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>2322</v>
@@ -14469,7 +14511,7 @@
         <v>2493</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>2515</v>
+        <v>2687</v>
       </c>
       <c r="J72" s="16" t="s">
         <v>2322</v>
@@ -19115,14 +19157,14 @@
       <c r="H206" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I206" s="7" t="s">
-        <v>2609</v>
+      <c r="I206" s="16" t="s">
+        <v>2677</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>2382</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>2595</v>
+        <v>2681</v>
+      </c>
+      <c r="K206" s="16" t="s">
+        <v>2682</v>
       </c>
       <c r="L206" s="7" t="s">
         <v>2575</v>
@@ -19191,14 +19233,14 @@
       <c r="H208" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I208" s="7" t="s">
-        <v>2614</v>
+      <c r="I208" s="16" t="s">
+        <v>2678</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>2382</v>
-      </c>
-      <c r="K208" s="7" t="s">
-        <v>2595</v>
+        <v>2681</v>
+      </c>
+      <c r="K208" s="16" t="s">
+        <v>2682</v>
       </c>
       <c r="L208" s="7" t="s">
         <v>2575</v>
@@ -19267,14 +19309,14 @@
       <c r="H210" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I210" s="7" t="s">
-        <v>2612</v>
+      <c r="I210" s="16" t="s">
+        <v>2679</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>2382</v>
-      </c>
-      <c r="K210" s="7" t="s">
-        <v>2595</v>
+        <v>2681</v>
+      </c>
+      <c r="K210" s="16" t="s">
+        <v>2682</v>
       </c>
       <c r="L210" s="7" t="s">
         <v>2575</v>
@@ -19343,14 +19385,14 @@
       <c r="H212" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I212" s="7" t="s">
-        <v>2610</v>
+      <c r="I212" s="16" t="s">
+        <v>2680</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>2382</v>
-      </c>
-      <c r="K212" s="7" t="s">
-        <v>2595</v>
+        <v>2681</v>
+      </c>
+      <c r="K212" s="16" t="s">
+        <v>2682</v>
       </c>
       <c r="L212" s="7" t="s">
         <v>2575</v>
@@ -20266,16 +20308,14 @@
         <v>2407</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>2597</v>
+        <v>2683</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>2332</v>
       </c>
-      <c r="K238" s="16" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="14">
+      <c r="K238" s="16"/>
+    </row>
+    <row r="239" spans="1:12" ht="56">
       <c r="A239" s="15">
         <f t="shared" si="10"/>
         <v>219</v>
@@ -20301,15 +20341,13 @@
       <c r="H239" s="16" t="s">
         <v>2407</v>
       </c>
-      <c r="I239" s="16" t="s">
-        <v>2598</v>
+      <c r="I239" s="367" t="s">
+        <v>2685</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>2332</v>
-      </c>
-      <c r="K239" s="16" t="s">
-        <v>2453</v>
-      </c>
+        <v>2684</v>
+      </c>
+      <c r="K239" s="16"/>
     </row>
     <row r="240" spans="1:12" ht="14">
       <c r="A240" s="15">
@@ -67913,21 +67951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68130,36 +68153,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68178,6 +68191,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D0C9B-C939-BC4B-9F5F-12445651310C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C64CCD-F9E5-C74F-B3F7-E088CF1EDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="2677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="2685">
   <si>
     <t>u</t>
   </si>
@@ -9283,6 +9283,30 @@
   </si>
   <si>
     <t>component[ SecondOtherPacificIslanderLiteral].valueString</t>
+  </si>
+  <si>
+    <t>Last name is required.  If the decedent's legal name is not unknown, LNAME should be reported as UNKNOWN. Placeholder names such as 'John Doe' or 'Jane Doe' should not be reported.</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead ].valueDateTime</t>
+  </si>
+  <si>
+    <t>component[datetimePronouncedDead].valueDateTime if a date is also specified, or component[datetimePronouncedDead].valueTime if no date is specified</t>
+  </si>
+  <si>
+    <t>dateTime or time</t>
+  </si>
+  <si>
+    <t>component[ FirstAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>component[ SecondAmericanIndianOrAlaskanNativeLiteral].valueString</t>
+  </si>
+  <si>
+    <t>Last name is required for NCHS submission.  If the decedent's legal name is not unknown, LNAME should be reported as UNKNOWN. Placeholder names such as 'John Doe' or 'Jane Doe' should not be reported.</t>
+  </si>
+  <si>
+    <t>name.family , name.use = official. (absence is equivalent to UNKNOWN.)</t>
   </si>
 </sst>
 </file>
@@ -10994,9 +11018,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11034,9 +11058,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11069,26 +11093,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11121,26 +11128,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11872,8 +11862,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -11886,7 +11876,7 @@
     <col min="6" max="6" width="55.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="15" style="8" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="55.83203125" style="7" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="7"/>
@@ -12524,7 +12514,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14">
+    <row r="21" spans="1:12" ht="42">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12543,20 +12533,20 @@
         <v>84</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>85</v>
+        <v>2677</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>2434</v>
+      <c r="I21" s="2" t="s">
+        <v>2684</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>2595</v>
+      <c r="K21" s="16" t="s">
+        <v>2683</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>2575</v>
@@ -14431,7 +14421,7 @@
         <v>2493</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>2514</v>
+        <v>2681</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>2322</v>
@@ -14469,7 +14459,7 @@
         <v>2493</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>2515</v>
+        <v>2682</v>
       </c>
       <c r="J72" s="16" t="s">
         <v>2322</v>
@@ -20266,14 +20256,12 @@
         <v>2407</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>2597</v>
+        <v>2678</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>2332</v>
       </c>
-      <c r="K238" s="16" t="s">
-        <v>2453</v>
-      </c>
+      <c r="K238" s="16"/>
     </row>
     <row r="239" spans="1:12" ht="14">
       <c r="A239" s="15">
@@ -20302,14 +20290,12 @@
         <v>2407</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2598</v>
+        <v>2679</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>2332</v>
-      </c>
-      <c r="K239" s="16" t="s">
-        <v>2453</v>
-      </c>
+        <v>2680</v>
+      </c>
+      <c r="K239" s="16"/>
     </row>
     <row r="240" spans="1:12" ht="14">
       <c r="A240" s="15">
@@ -67913,21 +67899,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68130,36 +68105,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68178,10 +68147,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C64CCD-F9E5-C74F-B3F7-E088CF1EDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8578E7-2EA1-4C47-A787-FB150657C8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="500" windowWidth="60640" windowHeight="23560" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9303,10 +9303,10 @@
     <t>component[ SecondAmericanIndianOrAlaskanNativeLiteral].valueString</t>
   </si>
   <si>
-    <t>Last name is required for NCHS submission.  If the decedent's legal name is not unknown, LNAME should be reported as UNKNOWN. Placeholder names such as 'John Doe' or 'Jane Doe' should not be reported.</t>
-  </si>
-  <si>
     <t>name.family , name.use = official. (absence is equivalent to UNKNOWN.)</t>
+  </si>
+  <si>
+    <t>Last name is required for NCHS submission.  If the decedent's legal name is unknown, name.family should be reported as UNKNOWN, or omitted. Placeholder names such as 'John Doe' or 'Jane Doe' should not be reported.</t>
   </si>
 </sst>
 </file>
@@ -11862,8 +11862,8 @@
   </sheetPr>
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -12540,13 +12540,13 @@
         <v>2318</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>2575</v>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E841FE-AF65-0342-9B42-BF2560EB125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8A055-3A88-8B47-8B2D-296BF4C33667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="5200" windowWidth="30240" windowHeight="18880" tabRatio="779" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontpage" sheetId="7" r:id="rId1"/>
@@ -24,12 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality!$A$5:$L$280</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$255</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Surveillance!$A$5:$L$164</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Birth Infant Death'!$A$1:$F$368</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Fetal Death'!$A$1:$F$376</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Mortality!$A$1:$F$283</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mortality Roster'!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mortality Roster'!$A$1:$F$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Natality!$A$1:$F$369</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Surveillance!$A$1:$F$167</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Birth Infant Death'!$1:$9</definedName>
@@ -39,12 +39,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">Natality!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Surveillance!$1:$4</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="1" hidden="1">Mortality!$B$5:$M$285</definedName>
-    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$254</definedName>
+    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$255</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="2" hidden="1">Surveillance!$B$5:$M$169</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="7" hidden="1">'Birth Infant Death'!$A$1:$F$368</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="5" hidden="1">'Fetal Death'!$A$2:$F$376</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="1" hidden="1">Mortality!$A$1:$F$285</definedName>
-    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="3" hidden="1">'Mortality Roster'!$A$2:$F$43</definedName>
+    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="3" hidden="1">'Mortality Roster'!$A$2:$F$44</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="4" hidden="1">Natality!$A$1:$F$369</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="2" hidden="1">Surveillance!$A$1:$F$169</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="7" hidden="1">'Birth Infant Death'!$1:$9</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="2689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2689">
   <si>
     <t>u</t>
   </si>
@@ -11875,8 +11875,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -27778,10 +27778,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -28003,7 +28003,7 @@
         <v>2322</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>2595</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -28035,7 +28035,7 @@
         <v>2322</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>2595</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -28067,7 +28067,7 @@
         <v>2322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>2595</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1">
@@ -28359,73 +28359,65 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14">
-      <c r="A21" s="54">
-        <v>15</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="C21" s="48">
-        <v>6</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>691</v>
-      </c>
-      <c r="E21" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>2637</v>
+      <c r="A21" s="15" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F21" s="83"/>
+      <c r="G21" s="16" t="s">
+        <v>2318</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>2606</v>
+        <v>2683</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+        <v>2361</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>2688</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="14">
       <c r="A22" s="54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C22" s="48">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>437</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>691</v>
       </c>
       <c r="E22" s="117" t="s">
-        <v>693</v>
+        <v>68</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>2414</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>2433</v>
+        <v>2606</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>2322</v>
+        <v>2374</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>2595</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -28433,19 +28425,19 @@
     </row>
     <row r="23" spans="1:14" ht="14">
       <c r="A23" s="54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C23" s="48">
         <v>50</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>439</v>
+      <c r="D23" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E23" s="117" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F23" s="55" t="s">
         <v>694</v>
@@ -28463,24 +28455,27 @@
         <v>2595</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" ht="14">
       <c r="A24" s="54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C24" s="48">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>439</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F24" s="55" t="s">
         <v>694</v>
@@ -28489,7 +28484,7 @@
         <v>2414</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>2415</v>
+        <v>2433</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>2322</v>
@@ -28498,33 +28493,33 @@
         <v>2595</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14">
       <c r="A25" s="54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C25" s="48">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>694</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>2433</v>
+        <v>2415</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>2322</v>
@@ -28533,24 +28528,24 @@
         <v>2595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14">
       <c r="A26" s="54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C26" s="48">
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>443</v>
+        <v>700</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F26" s="55" t="s">
         <v>694</v>
@@ -28568,24 +28563,24 @@
         <v>2595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14">
       <c r="A27" s="54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C27" s="48">
         <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F27" s="55" t="s">
         <v>694</v>
@@ -28594,67 +28589,72 @@
         <v>2417</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>2363</v>
+        <v>2322</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>2595</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14">
       <c r="A28" s="54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C28" s="48">
-        <v>10</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>707</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="55"/>
+        <v>705</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>694</v>
+      </c>
       <c r="G28" s="16" t="s">
-        <v>2318</v>
+        <v>2417</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>2322</v>
+        <v>2363</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="K28" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14">
       <c r="A29" s="54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C29" s="48">
         <v>10</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>520</v>
+      <c r="D29" s="44" t="s">
+        <v>707</v>
       </c>
       <c r="E29" s="117" t="s">
-        <v>709</v>
+        <v>87</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="16" t="s">
-        <v>2414</v>
+        <v>2318</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>2435</v>
@@ -28665,29 +28665,26 @@
       <c r="J29" s="7" t="s">
         <v>2595</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>521</v>
-      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C30" s="48">
         <v>10</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E30" s="117" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="16" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>2435</v>
@@ -28699,366 +28696,393 @@
         <v>2595</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="54">
+        <v>24</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="C31" s="48">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="16" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>2435</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>2322</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>2632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14">
-      <c r="A31" s="54">
-        <v>25</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>712</v>
-      </c>
-      <c r="C31" s="48">
-        <v>2</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>713</v>
-      </c>
-      <c r="E31" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14">
       <c r="A32" s="54">
+        <v>25</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" s="48">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>713</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14">
+      <c r="A33" s="54">
         <v>26</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B33" s="52" t="s">
         <v>714</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C33" s="48">
         <v>50</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F33" s="55" t="s">
         <v>694</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>2318</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>2436</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="28">
-      <c r="A33" s="54">
-        <v>27</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="C33" s="48">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E33" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="F33" s="116" t="s">
-        <v>717</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>2352</v>
+        <v>2436</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="358">
+    </row>
+    <row r="34" spans="1:13" ht="28">
       <c r="A34" s="54">
+        <v>27</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="C34" s="48">
         <v>28</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>718</v>
-      </c>
-      <c r="C34" s="48">
-        <v>2</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>720</v>
+        <v>411</v>
       </c>
       <c r="F34" s="116" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="358">
       <c r="A35" s="54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C35" s="48">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F35" s="116" t="s">
-        <v>120</v>
+        <v>721</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>2323</v>
+        <v>2346</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>2633</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>2634</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14">
       <c r="A36" s="54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C36" s="48">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E36" s="117" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F36" s="116" t="s">
         <v>120</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>2347</v>
+        <v>2318</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>2370</v>
+        <v>2323</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>2363</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>2630</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>2631</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+        <v>2322</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>2633</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="14">
       <c r="A37" s="54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C37" s="48">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>132</v>
+        <v>727</v>
       </c>
       <c r="F37" s="116" t="s">
         <v>120</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>2318</v>
+        <v>2347</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>2350</v>
+        <v>2370</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>2322</v>
+        <v>2363</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="41.25" customHeight="1">
+        <v>2630</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" ht="14">
       <c r="A38" s="54">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C38" s="48">
-        <v>9</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>731</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>132</v>
       </c>
       <c r="F38" s="116" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>2358</v>
+      <c r="H38" s="16" t="s">
+        <v>2350</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="16" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="41.25" customHeight="1">
+      <c r="A39" s="54">
+        <v>32</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>730</v>
+      </c>
+      <c r="C39" s="48">
+        <v>9</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>2318</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>2322</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28">
-      <c r="A39" s="54">
+    <row r="40" spans="1:13" ht="28">
+      <c r="A40" s="54">
         <v>33</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>732</v>
-      </c>
-      <c r="C39" s="48">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2638</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>2637</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>2636</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14">
-      <c r="A40" s="54">
-        <v>34</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>733</v>
       </c>
       <c r="C40" s="48">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>481</v>
+        <v>88</v>
       </c>
       <c r="F40" s="116" t="s">
-        <v>734</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>2637</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>2361</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>2590</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14">
       <c r="A41" s="54">
+        <v>34</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" s="48">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F41" s="116" t="s">
+        <v>734</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14">
+      <c r="A42" s="54">
         <v>35</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>735</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C42" s="48">
         <v>29</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D42" s="44" t="s">
         <v>736</v>
       </c>
-      <c r="E41" s="117" t="s">
+      <c r="E42" s="117" t="s">
         <v>658</v>
       </c>
-      <c r="F41" s="116" t="s">
+      <c r="F42" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>2330</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="55"/>
-    </row>
-    <row r="43" spans="1:13" ht="14" thickBot="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57">
+    <row r="43" spans="1:13">
+      <c r="A43" s="54"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="1:13" ht="14" thickBot="1">
+      <c r="A44" s="56"/>
+      <c r="B44" s="57">
         <v>675</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C44" s="75" t="s">
         <v>663</v>
       </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="58"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7"/>
@@ -29228,13 +29252,13 @@
       <c r="C72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1">
+    <row r="73" spans="1:6">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -29396,31 +29420,31 @@
       <c r="C100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" ht="3.75" customHeight="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="3.75" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="90" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" ht="24.75" customHeight="1">
+    <row r="104" spans="1:6" ht="90" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="24.75" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -29516,13 +29540,13 @@
       <c r="C120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" ht="65.25" customHeight="1">
+    <row r="121" spans="1:6">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="65.25" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -29534,43 +29558,43 @@
       <c r="C123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1">
+    <row r="124" spans="1:6">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" ht="21" customHeight="1">
+    <row r="126" spans="1:6">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" ht="36.75" customHeight="1">
+    <row r="127" spans="1:6" ht="21" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="36.75" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" ht="32.25" customHeight="1">
+    <row r="129" spans="1:6">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="32.25" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -29750,13 +29774,13 @@
       <c r="C159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="92.25" customHeight="1">
+    <row r="160" spans="1:6">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="92.25" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -30224,15 +30248,15 @@
       <c r="C238" s="7"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:7" s="16" customFormat="1">
-      <c r="E239" s="10"/>
-      <c r="G239" s="2"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="F240" s="7"/>
+    <row r="239" spans="1:7">
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" spans="1:7" s="16" customFormat="1">
+      <c r="E240" s="10"/>
+      <c r="G240" s="2"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="7"/>
@@ -30264,13 +30288,13 @@
       <c r="C245" s="7"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:7" ht="27.75" customHeight="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="27.75" customHeight="1">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -30282,28 +30306,28 @@
       <c r="C248" s="7"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:7" ht="6.75" customHeight="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:7" s="10" customFormat="1">
-      <c r="G250" s="9"/>
-    </row>
-    <row r="251" spans="1:7" ht="6" customHeight="1">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="F251" s="7"/>
-    </row>
-    <row r="252" spans="1:7" ht="24.75" customHeight="1">
+    <row r="250" spans="1:7" ht="6.75" customHeight="1">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" spans="1:7" s="10" customFormat="1">
+      <c r="G251" s="9"/>
+    </row>
+    <row r="252" spans="1:7" ht="6" customHeight="1">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" ht="24.75" customHeight="1">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -30332,6 +30356,12 @@
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="F257" s="7"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="F258" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8A055-3A88-8B47-8B2D-296BF4C33667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DB007-9B48-3244-B908-82ECF43CF877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19280" yWindow="5200" windowWidth="30240" windowHeight="18880" tabRatio="779" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11616,7 +11616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56">
+    <row r="38" spans="1:7" ht="70">
       <c r="A38" s="78">
         <v>40029</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="140">
+    <row r="49" spans="1:2" ht="154">
       <c r="A49" s="59">
         <v>39867</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="14">
+    <row r="177" spans="1:12" ht="28">
       <c r="A177" s="15">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -19742,7 +19742,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="14">
+    <row r="224" spans="1:12" ht="28">
       <c r="A224" s="15">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -27781,7 +27781,7 @@
   <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -28003,7 +28003,7 @@
         <v>2322</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -28035,7 +28035,7 @@
         <v>2322</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -28067,7 +28067,7 @@
         <v>2322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1">
@@ -32046,7 +32046,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14">
+    <row r="64" spans="1:6" ht="28">
       <c r="A64" s="18">
         <v>55</v>
       </c>
@@ -46981,7 +46981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14">
+    <row r="209" spans="1:6" ht="28">
       <c r="A209" s="132">
         <v>201</v>
       </c>
@@ -55597,7 +55597,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14">
+    <row r="65" spans="1:6" ht="28">
       <c r="A65" s="18">
         <v>55</v>
       </c>
@@ -67977,12 +67977,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68189,7 +68184,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68199,9 +68199,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68226,9 +68226,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DB007-9B48-3244-B908-82ECF43CF877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C62024-E97C-1444-9563-CF670A55B3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="5200" windowWidth="30240" windowHeight="18880" tabRatio="779" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontpage" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality!$A$5:$L$280</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Natality!$A$8:$IE$367</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Surveillance!$A$5:$L$164</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Birth Infant Death'!$A$1:$F$368</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Fetal Death'!$A$1:$F$376</definedName>
@@ -11616,7 +11617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="70">
+    <row r="38" spans="1:7" ht="56">
       <c r="A38" s="78">
         <v>40029</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="154">
+    <row r="48" spans="1:7" ht="140">
       <c r="A48" s="59">
         <v>39887</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="154">
+    <row r="49" spans="1:2" ht="140">
       <c r="A49" s="59">
         <v>39867</v>
       </c>
@@ -11875,8 +11876,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K37" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -13142,7 +13143,7 @@
         <v>2600</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>2454</v>
@@ -13180,7 +13181,7 @@
         <v>2601</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>2455</v>
@@ -27780,8 +27781,8 @@
   </sheetPr>
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="C11" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -30379,13 +30380,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IE369"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -30960,7 +30961,7 @@
       <c r="ID8"/>
       <c r="IE8"/>
     </row>
-    <row r="9" spans="1:239" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:239" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="329" t="s">
         <v>60</v>
       </c>
@@ -30970,7 +30971,7 @@
       <c r="E9" s="329"/>
       <c r="F9" s="330"/>
     </row>
-    <row r="10" spans="1:239" ht="14">
+    <row r="10" spans="1:239" ht="14" hidden="1">
       <c r="A10" s="18">
         <v>1</v>
       </c>
@@ -30990,7 +30991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:239" ht="293">
+    <row r="11" spans="1:239" ht="293" hidden="1">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -31010,7 +31011,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:239" ht="14">
+    <row r="12" spans="1:239" ht="14" hidden="1">
       <c r="A12" s="18">
         <v>3</v>
       </c>
@@ -31030,7 +31031,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:239" ht="28">
+    <row r="13" spans="1:239" ht="28" hidden="1">
       <c r="A13" s="18">
         <v>4</v>
       </c>
@@ -31050,7 +31051,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:239" ht="14">
+    <row r="14" spans="1:239" ht="14" hidden="1">
       <c r="A14" s="18">
         <v>5</v>
       </c>
@@ -31070,7 +31071,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="1:239" ht="14">
+    <row r="15" spans="1:239" ht="14" hidden="1">
       <c r="A15" s="18">
         <v>6</v>
       </c>
@@ -31090,7 +31091,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:239" ht="42">
+    <row r="16" spans="1:239" ht="42" hidden="1">
       <c r="A16" s="18">
         <v>7</v>
       </c>
@@ -31110,7 +31111,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="14" hidden="1">
       <c r="A17" s="18">
         <v>8</v>
       </c>
@@ -31130,7 +31131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="14" hidden="1">
       <c r="A18" s="18">
         <v>9</v>
       </c>
@@ -31170,7 +31171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="112">
+    <row r="20" spans="1:6" ht="112" hidden="1">
       <c r="A20" s="18">
         <v>11</v>
       </c>
@@ -31190,7 +31191,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="14" hidden="1">
       <c r="A21" s="18">
         <v>12</v>
       </c>
@@ -31208,7 +31209,7 @@
       </c>
       <c r="F21" s="96"/>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="14" hidden="1">
       <c r="A22" s="18">
         <v>13</v>
       </c>
@@ -31226,7 +31227,7 @@
       </c>
       <c r="F22" s="93"/>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="14" hidden="1">
       <c r="A23" s="18">
         <v>14</v>
       </c>
@@ -31246,7 +31247,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="14" hidden="1">
       <c r="A24" s="18">
         <v>15</v>
       </c>
@@ -31266,7 +31267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14">
+    <row r="25" spans="1:6" ht="14" hidden="1">
       <c r="A25" s="18">
         <v>16</v>
       </c>
@@ -31286,7 +31287,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="28" hidden="1">
       <c r="A26" s="18">
         <v>17</v>
       </c>
@@ -31306,7 +31307,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="345">
+    <row r="27" spans="1:6" ht="345" hidden="1">
       <c r="A27" s="18">
         <v>18</v>
       </c>
@@ -31326,7 +31327,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="14" hidden="1">
       <c r="A28" s="18">
         <v>19</v>
       </c>
@@ -31346,7 +31347,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14">
+    <row r="29" spans="1:6" ht="14" hidden="1">
       <c r="A29" s="18">
         <v>20</v>
       </c>
@@ -31386,7 +31387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="345">
+    <row r="31" spans="1:6" ht="345" hidden="1">
       <c r="A31" s="18">
         <v>22</v>
       </c>
@@ -31406,7 +31407,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14">
+    <row r="32" spans="1:6" ht="14" hidden="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -31426,7 +31427,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="42">
+    <row r="33" spans="1:6" ht="42" hidden="1">
       <c r="A33" s="18">
         <v>24</v>
       </c>
@@ -31446,7 +31447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14">
+    <row r="34" spans="1:6" ht="14" hidden="1">
       <c r="A34" s="18">
         <v>25</v>
       </c>
@@ -31466,7 +31467,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14">
+    <row r="35" spans="1:6" ht="14" hidden="1">
       <c r="A35" s="18">
         <v>26</v>
       </c>
@@ -31486,7 +31487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14">
+    <row r="36" spans="1:6" ht="14" hidden="1">
       <c r="A36" s="18">
         <v>27</v>
       </c>
@@ -31506,7 +31507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28">
+    <row r="37" spans="1:6" ht="28" hidden="1">
       <c r="A37" s="18">
         <v>28</v>
       </c>
@@ -31526,7 +31527,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42">
+    <row r="38" spans="1:6" ht="42" hidden="1">
       <c r="A38" s="18">
         <v>29</v>
       </c>
@@ -31546,7 +31547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="42">
+    <row r="39" spans="1:6" ht="42" hidden="1">
       <c r="A39" s="18">
         <v>30</v>
       </c>
@@ -31566,7 +31567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="56">
+    <row r="40" spans="1:6" ht="56" hidden="1">
       <c r="A40" s="18">
         <v>31</v>
       </c>
@@ -31586,7 +31587,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="126">
+    <row r="41" spans="1:6" ht="126" hidden="1">
       <c r="A41" s="18">
         <v>32</v>
       </c>
@@ -31606,7 +31607,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="42">
+    <row r="42" spans="1:6" ht="42" hidden="1">
       <c r="A42" s="18">
         <v>33</v>
       </c>
@@ -31626,7 +31627,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="42">
+    <row r="43" spans="1:6" ht="42" hidden="1">
       <c r="A43" s="18">
         <v>34</v>
       </c>
@@ -31646,7 +31647,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42">
+    <row r="44" spans="1:6" ht="42" hidden="1">
       <c r="A44" s="18">
         <v>35</v>
       </c>
@@ -31666,7 +31667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="42">
+    <row r="45" spans="1:6" ht="42" hidden="1">
       <c r="A45" s="18">
         <v>36</v>
       </c>
@@ -31686,7 +31687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42">
+    <row r="46" spans="1:6" ht="42" hidden="1">
       <c r="A46" s="18">
         <v>37</v>
       </c>
@@ -31706,7 +31707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14">
+    <row r="47" spans="1:6" ht="14" hidden="1">
       <c r="A47" s="18">
         <v>38</v>
       </c>
@@ -31726,7 +31727,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28">
+    <row r="48" spans="1:6" ht="28" hidden="1">
       <c r="A48" s="18">
         <v>39</v>
       </c>
@@ -31746,7 +31747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14">
+    <row r="49" spans="1:6" ht="14" hidden="1">
       <c r="A49" s="18">
         <v>40</v>
       </c>
@@ -31766,7 +31767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14">
+    <row r="50" spans="1:6" ht="14" hidden="1">
       <c r="A50" s="18">
         <v>41</v>
       </c>
@@ -31786,7 +31787,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14">
+    <row r="51" spans="1:6" ht="14" hidden="1">
       <c r="A51" s="18">
         <v>42</v>
       </c>
@@ -31806,7 +31807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14">
+    <row r="52" spans="1:6" ht="14" hidden="1">
       <c r="A52" s="18">
         <v>43</v>
       </c>
@@ -31826,7 +31827,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14">
+    <row r="53" spans="1:6" ht="14" hidden="1">
       <c r="A53" s="18">
         <v>44</v>
       </c>
@@ -31846,7 +31847,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14">
+    <row r="54" spans="1:6" ht="14" hidden="1">
       <c r="A54" s="18">
         <v>45</v>
       </c>
@@ -31866,7 +31867,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14">
+    <row r="55" spans="1:6" ht="14" hidden="1">
       <c r="A55" s="18">
         <v>46</v>
       </c>
@@ -31886,7 +31887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14">
+    <row r="56" spans="1:6" ht="14" hidden="1">
       <c r="A56" s="18">
         <v>47</v>
       </c>
@@ -31906,7 +31907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14">
+    <row r="57" spans="1:6" ht="14" hidden="1">
       <c r="A57" s="18">
         <v>48</v>
       </c>
@@ -31926,7 +31927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14">
+    <row r="58" spans="1:6" ht="14" hidden="1">
       <c r="A58" s="18">
         <v>49</v>
       </c>
@@ -31946,7 +31947,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14">
+    <row r="59" spans="1:6" ht="14" hidden="1">
       <c r="A59" s="18">
         <v>50</v>
       </c>
@@ -31966,7 +31967,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14">
+    <row r="60" spans="1:6" ht="14" hidden="1">
       <c r="A60" s="18">
         <v>51</v>
       </c>
@@ -31986,7 +31987,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14">
+    <row r="61" spans="1:6" ht="14" hidden="1">
       <c r="A61" s="18">
         <v>52</v>
       </c>
@@ -32006,7 +32007,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14">
+    <row r="62" spans="1:6" ht="14" hidden="1">
       <c r="A62" s="18">
         <v>53</v>
       </c>
@@ -32026,7 +32027,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14">
+    <row r="63" spans="1:6" ht="14" hidden="1">
       <c r="A63" s="18">
         <v>54</v>
       </c>
@@ -32046,7 +32047,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28">
+    <row r="64" spans="1:6" ht="28" hidden="1">
       <c r="A64" s="18">
         <v>55</v>
       </c>
@@ -32066,7 +32067,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14">
+    <row r="65" spans="1:6" ht="14" hidden="1">
       <c r="A65" s="18">
         <v>56</v>
       </c>
@@ -32086,7 +32087,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14">
+    <row r="66" spans="1:6" ht="14" hidden="1">
       <c r="A66" s="18">
         <v>57</v>
       </c>
@@ -32106,7 +32107,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14">
+    <row r="67" spans="1:6" ht="14" hidden="1">
       <c r="A67" s="18">
         <v>58</v>
       </c>
@@ -32126,7 +32127,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14">
+    <row r="68" spans="1:6" ht="14" hidden="1">
       <c r="A68" s="18">
         <v>59</v>
       </c>
@@ -32146,7 +32147,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14">
+    <row r="69" spans="1:6" ht="14" hidden="1">
       <c r="A69" s="18">
         <v>60</v>
       </c>
@@ -32166,7 +32167,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14">
+    <row r="70" spans="1:6" ht="14" hidden="1">
       <c r="A70" s="18">
         <v>61</v>
       </c>
@@ -32186,7 +32187,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="27" customHeight="1">
+    <row r="71" spans="1:6" ht="27" hidden="1" customHeight="1">
       <c r="A71" s="18">
         <v>62</v>
       </c>
@@ -32206,7 +32207,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="18">
         <v>63</v>
       </c>
@@ -32226,7 +32227,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="18">
         <v>64</v>
       </c>
@@ -32246,7 +32247,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="18">
         <v>65</v>
       </c>
@@ -32266,7 +32267,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="18">
         <v>66</v>
       </c>
@@ -32286,7 +32287,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="18">
         <v>67</v>
       </c>
@@ -32306,7 +32307,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="18">
         <v>68</v>
       </c>
@@ -32326,7 +32327,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="18">
         <v>69</v>
       </c>
@@ -32346,7 +32347,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="18">
         <v>70</v>
       </c>
@@ -32366,7 +32367,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="18">
         <v>71</v>
       </c>
@@ -32386,7 +32387,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="18">
         <v>72</v>
       </c>
@@ -32406,7 +32407,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="18">
         <v>73</v>
       </c>
@@ -32426,7 +32427,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="18">
         <v>74</v>
       </c>
@@ -32446,7 +32447,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="18">
         <v>75</v>
       </c>
@@ -32466,7 +32467,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="18">
         <v>76</v>
       </c>
@@ -32486,7 +32487,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="18">
         <v>77</v>
       </c>
@@ -32506,7 +32507,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="126">
+    <row r="87" spans="1:6" ht="126" hidden="1">
       <c r="A87" s="18">
         <v>78</v>
       </c>
@@ -32526,7 +32527,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="42">
+    <row r="88" spans="1:6" ht="42" hidden="1">
       <c r="A88" s="18">
         <v>79</v>
       </c>
@@ -32546,7 +32547,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="42">
+    <row r="89" spans="1:6" ht="42" hidden="1">
       <c r="A89" s="18">
         <v>80</v>
       </c>
@@ -32566,7 +32567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="42">
+    <row r="90" spans="1:6" ht="42" hidden="1">
       <c r="A90" s="18">
         <v>81</v>
       </c>
@@ -32586,7 +32587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="42">
+    <row r="91" spans="1:6" ht="42" hidden="1">
       <c r="A91" s="18">
         <v>82</v>
       </c>
@@ -32606,7 +32607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="42">
+    <row r="92" spans="1:6" ht="42" hidden="1">
       <c r="A92" s="18">
         <v>83</v>
       </c>
@@ -32626,7 +32627,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14">
+    <row r="93" spans="1:6" ht="14" hidden="1">
       <c r="A93" s="18">
         <v>84</v>
       </c>
@@ -32646,7 +32647,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28">
+    <row r="94" spans="1:6" ht="28" hidden="1">
       <c r="A94" s="18">
         <v>85</v>
       </c>
@@ -32666,7 +32667,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14">
+    <row r="95" spans="1:6" ht="14" hidden="1">
       <c r="A95" s="18">
         <v>86</v>
       </c>
@@ -32686,7 +32687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12" customHeight="1">
+    <row r="96" spans="1:6" ht="12" hidden="1" customHeight="1">
       <c r="A96" s="18">
         <v>87</v>
       </c>
@@ -32706,7 +32707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14">
+    <row r="97" spans="1:6" ht="14" hidden="1">
       <c r="A97" s="18">
         <v>88</v>
       </c>
@@ -32726,7 +32727,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14">
+    <row r="98" spans="1:6" ht="14" hidden="1">
       <c r="A98" s="18">
         <v>89</v>
       </c>
@@ -32746,7 +32747,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14">
+    <row r="99" spans="1:6" ht="14" hidden="1">
       <c r="A99" s="18">
         <v>90</v>
       </c>
@@ -32766,7 +32767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14">
+    <row r="100" spans="1:6" ht="14" hidden="1">
       <c r="A100" s="18">
         <v>91</v>
       </c>
@@ -32786,7 +32787,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14">
+    <row r="101" spans="1:6" ht="14" hidden="1">
       <c r="A101" s="18">
         <v>92</v>
       </c>
@@ -32806,7 +32807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14">
+    <row r="102" spans="1:6" ht="14" hidden="1">
       <c r="A102" s="18">
         <v>93</v>
       </c>
@@ -32826,7 +32827,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14">
+    <row r="103" spans="1:6" ht="14" hidden="1">
       <c r="A103" s="18">
         <v>94</v>
       </c>
@@ -32846,7 +32847,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14">
+    <row r="104" spans="1:6" ht="14" hidden="1">
       <c r="A104" s="18">
         <v>95</v>
       </c>
@@ -32866,7 +32867,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14">
+    <row r="105" spans="1:6" ht="14" hidden="1">
       <c r="A105" s="18">
         <v>96</v>
       </c>
@@ -32886,7 +32887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14">
+    <row r="106" spans="1:6" ht="14" hidden="1">
       <c r="A106" s="18">
         <v>97</v>
       </c>
@@ -32906,7 +32907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14">
+    <row r="107" spans="1:6" ht="14" hidden="1">
       <c r="A107" s="18">
         <v>98</v>
       </c>
@@ -32926,7 +32927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14">
+    <row r="108" spans="1:6" ht="14" hidden="1">
       <c r="A108" s="18">
         <v>99</v>
       </c>
@@ -32946,7 +32947,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14">
+    <row r="109" spans="1:6" ht="14" hidden="1">
       <c r="A109" s="18">
         <v>100</v>
       </c>
@@ -32966,7 +32967,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14">
+    <row r="110" spans="1:6" ht="14" hidden="1">
       <c r="A110" s="18">
         <v>101</v>
       </c>
@@ -32986,7 +32987,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14">
+    <row r="111" spans="1:6" ht="14" hidden="1">
       <c r="A111" s="18">
         <v>102</v>
       </c>
@@ -33006,7 +33007,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14">
+    <row r="112" spans="1:6" ht="14" hidden="1">
       <c r="A112" s="18">
         <v>103</v>
       </c>
@@ -33026,7 +33027,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14">
+    <row r="113" spans="1:6" ht="14" hidden="1">
       <c r="A113" s="18">
         <v>104</v>
       </c>
@@ -33046,7 +33047,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14">
+    <row r="114" spans="1:6" ht="14" hidden="1">
       <c r="A114" s="18">
         <v>105</v>
       </c>
@@ -33066,7 +33067,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14">
+    <row r="115" spans="1:6" ht="14" hidden="1">
       <c r="A115" s="18">
         <v>106</v>
       </c>
@@ -33086,7 +33087,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14">
+    <row r="116" spans="1:6" ht="14" hidden="1">
       <c r="A116" s="18">
         <v>107</v>
       </c>
@@ -33106,7 +33107,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="27.75" customHeight="1">
+    <row r="117" spans="1:6" ht="27.75" hidden="1" customHeight="1">
       <c r="A117" s="18">
         <v>108</v>
       </c>
@@ -33126,7 +33127,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="18">
         <v>109</v>
       </c>
@@ -33146,7 +33147,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="18">
         <v>110</v>
       </c>
@@ -33166,7 +33167,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="18">
         <v>111</v>
       </c>
@@ -33186,7 +33187,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="18">
         <v>112</v>
       </c>
@@ -33206,7 +33207,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="18">
         <v>113</v>
       </c>
@@ -33226,7 +33227,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="18">
         <v>114</v>
       </c>
@@ -33246,7 +33247,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="18">
         <v>115</v>
       </c>
@@ -33266,7 +33267,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="18">
         <v>116</v>
       </c>
@@ -33286,7 +33287,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="18">
         <v>117</v>
       </c>
@@ -33306,7 +33307,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="18">
         <v>118</v>
       </c>
@@ -33326,7 +33327,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="18">
         <v>119</v>
       </c>
@@ -33346,7 +33347,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="18">
         <v>120</v>
       </c>
@@ -33366,7 +33367,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="18">
         <v>121</v>
       </c>
@@ -33386,7 +33387,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="18">
         <v>122</v>
       </c>
@@ -33406,7 +33407,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="18">
         <v>123</v>
       </c>
@@ -33426,7 +33427,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="84">
+    <row r="133" spans="1:6" ht="84" hidden="1">
       <c r="A133" s="18">
         <v>124</v>
       </c>
@@ -33446,7 +33447,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="42">
+    <row r="134" spans="1:6" ht="42" hidden="1">
       <c r="A134" s="18">
         <v>125</v>
       </c>
@@ -33466,7 +33467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14">
+    <row r="135" spans="1:6" ht="14" hidden="1">
       <c r="A135" s="18">
         <v>126</v>
       </c>
@@ -33486,7 +33487,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14">
+    <row r="136" spans="1:6" ht="14" hidden="1">
       <c r="A136" s="18">
         <v>127</v>
       </c>
@@ -33506,7 +33507,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="24.75" customHeight="1">
+    <row r="137" spans="1:6" ht="24.75" hidden="1" customHeight="1">
       <c r="A137" s="18">
         <v>128</v>
       </c>
@@ -33526,7 +33527,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28">
+    <row r="138" spans="1:6" ht="28" hidden="1">
       <c r="A138" s="18">
         <v>129</v>
       </c>
@@ -33546,7 +33547,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="28">
+    <row r="139" spans="1:6" ht="28" hidden="1">
       <c r="A139" s="18">
         <v>130</v>
       </c>
@@ -33566,7 +33567,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28">
+    <row r="140" spans="1:6" ht="28" hidden="1">
       <c r="A140" s="18">
         <v>131</v>
       </c>
@@ -33586,7 +33587,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14">
+    <row r="141" spans="1:6" ht="14" hidden="1">
       <c r="A141" s="18">
         <v>132</v>
       </c>
@@ -33606,7 +33607,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="42">
+    <row r="142" spans="1:6" ht="42" hidden="1">
       <c r="A142" s="18">
         <v>133</v>
       </c>
@@ -33626,7 +33627,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14">
+    <row r="143" spans="1:6" ht="14" hidden="1">
       <c r="A143" s="18">
         <v>134</v>
       </c>
@@ -33646,7 +33647,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14">
+    <row r="144" spans="1:6" ht="14" hidden="1">
       <c r="A144" s="18">
         <v>135</v>
       </c>
@@ -33666,7 +33667,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="42">
+    <row r="145" spans="1:6" ht="42" hidden="1">
       <c r="A145" s="18">
         <v>136</v>
       </c>
@@ -33686,7 +33687,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14">
+    <row r="146" spans="1:6" ht="14" hidden="1">
       <c r="A146" s="18">
         <v>137</v>
       </c>
@@ -33706,7 +33707,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="42">
+    <row r="147" spans="1:6" ht="42" hidden="1">
       <c r="A147" s="18">
         <v>138</v>
       </c>
@@ -33726,7 +33727,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14">
+    <row r="148" spans="1:6" ht="14" hidden="1">
       <c r="A148" s="18">
         <v>139</v>
       </c>
@@ -33746,7 +33747,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="42">
+    <row r="149" spans="1:6" ht="42" hidden="1">
       <c r="A149" s="18">
         <v>140</v>
       </c>
@@ -33766,7 +33767,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="42">
+    <row r="150" spans="1:6" ht="42" hidden="1">
       <c r="A150" s="18">
         <v>141</v>
       </c>
@@ -33786,7 +33787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14">
+    <row r="151" spans="1:6" ht="14" hidden="1">
       <c r="A151" s="18">
         <v>142</v>
       </c>
@@ -33806,7 +33807,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14">
+    <row r="152" spans="1:6" ht="14" hidden="1">
       <c r="A152" s="18">
         <v>143</v>
       </c>
@@ -33826,7 +33827,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14">
+    <row r="153" spans="1:6" ht="14" hidden="1">
       <c r="A153" s="18">
         <v>144</v>
       </c>
@@ -33846,7 +33847,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14">
+    <row r="154" spans="1:6" ht="14" hidden="1">
       <c r="A154" s="18">
         <v>145</v>
       </c>
@@ -33866,7 +33867,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="28">
+    <row r="155" spans="1:6" ht="28" hidden="1">
       <c r="A155" s="18">
         <v>146</v>
       </c>
@@ -33886,7 +33887,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14">
+    <row r="156" spans="1:6" ht="14" hidden="1">
       <c r="A156" s="18">
         <v>147</v>
       </c>
@@ -33906,7 +33907,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28">
+    <row r="157" spans="1:6" ht="28" hidden="1">
       <c r="A157" s="18">
         <v>148</v>
       </c>
@@ -33926,7 +33927,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14">
+    <row r="158" spans="1:6" ht="14" hidden="1">
       <c r="A158" s="18">
         <v>149</v>
       </c>
@@ -33946,7 +33947,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14">
+    <row r="159" spans="1:6" ht="14" hidden="1">
       <c r="A159" s="18">
         <v>150</v>
       </c>
@@ -33966,7 +33967,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14">
+    <row r="160" spans="1:6" ht="14" hidden="1">
       <c r="A160" s="18">
         <v>151</v>
       </c>
@@ -33986,7 +33987,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14">
+    <row r="161" spans="1:6" ht="14" hidden="1">
       <c r="A161" s="18">
         <v>152</v>
       </c>
@@ -34006,7 +34007,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="112">
+    <row r="162" spans="1:6" ht="112" hidden="1">
       <c r="A162" s="18">
         <v>153</v>
       </c>
@@ -34026,7 +34027,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="42">
+    <row r="163" spans="1:6" ht="42" hidden="1">
       <c r="A163" s="18">
         <v>154</v>
       </c>
@@ -34046,7 +34047,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14">
+    <row r="164" spans="1:6" ht="14" hidden="1">
       <c r="A164" s="18">
         <v>155</v>
       </c>
@@ -34066,7 +34067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14">
+    <row r="165" spans="1:6" ht="14" hidden="1">
       <c r="A165" s="18">
         <v>156</v>
       </c>
@@ -34086,7 +34087,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="42">
+    <row r="166" spans="1:6" ht="42" hidden="1">
       <c r="A166" s="18">
         <v>157</v>
       </c>
@@ -34106,7 +34107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14">
+    <row r="167" spans="1:6" ht="14" hidden="1">
       <c r="A167" s="18">
         <v>158</v>
       </c>
@@ -34126,7 +34127,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14">
+    <row r="168" spans="1:6" ht="14" hidden="1">
       <c r="A168" s="18">
         <v>159</v>
       </c>
@@ -34146,7 +34147,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="28">
+    <row r="169" spans="1:6" ht="28" hidden="1">
       <c r="A169" s="18">
         <v>160</v>
       </c>
@@ -34166,7 +34167,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14">
+    <row r="170" spans="1:6" ht="14" hidden="1">
       <c r="A170" s="18">
         <v>161</v>
       </c>
@@ -34186,7 +34187,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="28">
+    <row r="171" spans="1:6" ht="28" hidden="1">
       <c r="A171" s="18">
         <v>162</v>
       </c>
@@ -34206,7 +34207,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="28">
+    <row r="172" spans="1:6" ht="28" hidden="1">
       <c r="A172" s="18">
         <v>163</v>
       </c>
@@ -34226,7 +34227,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="28">
+    <row r="173" spans="1:6" ht="28" hidden="1">
       <c r="A173" s="18">
         <v>164</v>
       </c>
@@ -34246,7 +34247,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14">
+    <row r="174" spans="1:6" ht="14" hidden="1">
       <c r="A174" s="18">
         <v>165</v>
       </c>
@@ -34266,7 +34267,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14">
+    <row r="175" spans="1:6" ht="14" hidden="1">
       <c r="A175" s="18">
         <v>166</v>
       </c>
@@ -34286,7 +34287,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="28">
+    <row r="176" spans="1:6" ht="28" hidden="1">
       <c r="A176" s="18">
         <v>167</v>
       </c>
@@ -34306,7 +34307,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="42">
+    <row r="177" spans="1:6" ht="42" hidden="1">
       <c r="A177" s="18">
         <v>168</v>
       </c>
@@ -34326,7 +34327,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14">
+    <row r="178" spans="1:6" ht="14" hidden="1">
       <c r="A178" s="18">
         <v>169</v>
       </c>
@@ -34346,7 +34347,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="28">
+    <row r="179" spans="1:6" ht="28" hidden="1">
       <c r="A179" s="18">
         <v>170</v>
       </c>
@@ -34366,7 +34367,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14">
+    <row r="180" spans="1:6" ht="14" hidden="1">
       <c r="A180" s="18">
         <v>171</v>
       </c>
@@ -34386,7 +34387,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14">
+    <row r="181" spans="1:6" ht="14" hidden="1">
       <c r="A181" s="18">
         <v>172</v>
       </c>
@@ -34406,7 +34407,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14">
+    <row r="182" spans="1:6" ht="14" hidden="1">
       <c r="A182" s="18">
         <v>173</v>
       </c>
@@ -34426,7 +34427,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="42">
+    <row r="183" spans="1:6" ht="42" hidden="1">
       <c r="A183" s="18">
         <v>174</v>
       </c>
@@ -34446,7 +34447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="28">
+    <row r="184" spans="1:6" ht="28" hidden="1">
       <c r="A184" s="18">
         <v>175</v>
       </c>
@@ -34466,7 +34467,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14">
+    <row r="185" spans="1:6" ht="14" hidden="1">
       <c r="A185" s="18">
         <v>176</v>
       </c>
@@ -34486,7 +34487,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14">
+    <row r="186" spans="1:6" ht="14" hidden="1">
       <c r="A186" s="18">
         <v>177</v>
       </c>
@@ -34506,7 +34507,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="42">
+    <row r="187" spans="1:6" ht="42" hidden="1">
       <c r="A187" s="18">
         <v>178</v>
       </c>
@@ -34526,7 +34527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="28">
+    <row r="188" spans="1:6" ht="28" hidden="1">
       <c r="A188" s="18">
         <v>179</v>
       </c>
@@ -34546,7 +34547,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="28">
+    <row r="189" spans="1:6" ht="28" hidden="1">
       <c r="A189" s="18">
         <v>180</v>
       </c>
@@ -34566,7 +34567,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="42">
+    <row r="190" spans="1:6" ht="42" hidden="1">
       <c r="A190" s="18">
         <v>181</v>
       </c>
@@ -34586,7 +34587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14">
+    <row r="191" spans="1:6" ht="14" hidden="1">
       <c r="A191" s="18">
         <v>182</v>
       </c>
@@ -34606,7 +34607,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30.75" customHeight="1">
+    <row r="192" spans="1:6" ht="30.75" hidden="1" customHeight="1">
       <c r="A192" s="18">
         <v>183</v>
       </c>
@@ -34626,7 +34627,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14">
+    <row r="193" spans="1:6" ht="14" hidden="1">
       <c r="A193" s="18">
         <v>184</v>
       </c>
@@ -34646,7 +34647,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14">
+    <row r="194" spans="1:6" ht="14" hidden="1">
       <c r="A194" s="18">
         <v>185</v>
       </c>
@@ -34666,7 +34667,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14">
+    <row r="195" spans="1:6" ht="14" hidden="1">
       <c r="A195" s="18">
         <v>186</v>
       </c>
@@ -34686,7 +34687,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="28">
+    <row r="196" spans="1:6" ht="28" hidden="1">
       <c r="A196" s="18">
         <v>187</v>
       </c>
@@ -34706,7 +34707,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="28">
+    <row r="197" spans="1:6" ht="28" hidden="1">
       <c r="A197" s="18">
         <v>188</v>
       </c>
@@ -34726,7 +34727,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14">
+    <row r="198" spans="1:6" ht="14" hidden="1">
       <c r="A198" s="18">
         <v>189</v>
       </c>
@@ -34746,7 +34747,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="28">
+    <row r="199" spans="1:6" ht="28" hidden="1">
       <c r="A199" s="18">
         <v>190</v>
       </c>
@@ -34766,7 +34767,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="28">
+    <row r="200" spans="1:6" ht="28" hidden="1">
       <c r="A200" s="18">
         <v>191</v>
       </c>
@@ -34786,7 +34787,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="56">
+    <row r="201" spans="1:6" ht="56" hidden="1">
       <c r="A201" s="18">
         <v>192</v>
       </c>
@@ -34806,7 +34807,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="70">
+    <row r="202" spans="1:6" ht="70" hidden="1">
       <c r="A202" s="18">
         <v>193</v>
       </c>
@@ -34826,7 +34827,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="56">
+    <row r="203" spans="1:6" ht="56" hidden="1">
       <c r="A203" s="18">
         <v>194</v>
       </c>
@@ -34846,7 +34847,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="42">
+    <row r="204" spans="1:6" ht="42" hidden="1">
       <c r="A204" s="18">
         <v>195</v>
       </c>
@@ -34866,7 +34867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14">
+    <row r="205" spans="1:6" ht="14" hidden="1">
       <c r="A205" s="18">
         <v>196</v>
       </c>
@@ -34886,7 +34887,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14">
+    <row r="206" spans="1:6" ht="14" hidden="1">
       <c r="A206" s="18">
         <v>197</v>
       </c>
@@ -34906,7 +34907,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14">
+    <row r="207" spans="1:6" ht="14" hidden="1">
       <c r="A207" s="18">
         <v>198</v>
       </c>
@@ -34926,7 +34927,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14">
+    <row r="208" spans="1:6" ht="14" hidden="1">
       <c r="A208" s="18">
         <v>199</v>
       </c>
@@ -34946,7 +34947,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="28">
+    <row r="209" spans="1:6" ht="28" hidden="1">
       <c r="A209" s="18">
         <v>200</v>
       </c>
@@ -34966,7 +34967,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="14">
+    <row r="210" spans="1:6" ht="14" hidden="1">
       <c r="A210" s="18">
         <v>201</v>
       </c>
@@ -34986,7 +34987,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="42">
+    <row r="211" spans="1:6" ht="42" hidden="1">
       <c r="A211" s="18">
         <v>202</v>
       </c>
@@ -35006,7 +35007,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14">
+    <row r="212" spans="1:6" ht="14" hidden="1">
       <c r="A212" s="18">
         <v>203</v>
       </c>
@@ -35026,7 +35027,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="28">
+    <row r="213" spans="1:6" ht="28" hidden="1">
       <c r="A213" s="18">
         <v>204</v>
       </c>
@@ -35046,7 +35047,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="14">
+    <row r="214" spans="1:6" ht="14" hidden="1">
       <c r="A214" s="18">
         <v>205</v>
       </c>
@@ -35066,7 +35067,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="14">
+    <row r="215" spans="1:6" ht="14" hidden="1">
       <c r="A215" s="18">
         <v>206</v>
       </c>
@@ -35086,7 +35087,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="14">
+    <row r="216" spans="1:6" ht="14" hidden="1">
       <c r="A216" s="18">
         <v>207</v>
       </c>
@@ -35106,7 +35107,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="14">
+    <row r="217" spans="1:6" ht="14" hidden="1">
       <c r="A217" s="18">
         <v>208</v>
       </c>
@@ -35126,7 +35127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="14">
+    <row r="218" spans="1:6" ht="14" hidden="1">
       <c r="A218" s="18">
         <v>209</v>
       </c>
@@ -35146,7 +35147,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14">
+    <row r="219" spans="1:6" ht="14" hidden="1">
       <c r="A219" s="18">
         <v>210</v>
       </c>
@@ -35166,7 +35167,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="42">
+    <row r="220" spans="1:6" ht="42" hidden="1">
       <c r="A220" s="18">
         <v>211</v>
       </c>
@@ -35186,7 +35187,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="42">
+    <row r="221" spans="1:6" ht="42" hidden="1">
       <c r="A221" s="18">
         <v>212</v>
       </c>
@@ -35206,7 +35207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="28">
+    <row r="222" spans="1:6" ht="28" hidden="1">
       <c r="A222" s="18">
         <v>213</v>
       </c>
@@ -35226,7 +35227,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="12.75" customHeight="1">
+    <row r="223" spans="1:6" ht="12.75" hidden="1" customHeight="1">
       <c r="A223" s="18">
         <v>214</v>
       </c>
@@ -35246,7 +35247,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="12.75" customHeight="1">
+    <row r="224" spans="1:6" ht="12.75" hidden="1" customHeight="1">
       <c r="A224" s="18">
         <v>215</v>
       </c>
@@ -35266,7 +35267,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="225" spans="1:239" ht="12.75" customHeight="1">
+    <row r="225" spans="1:239" ht="12.75" hidden="1" customHeight="1">
       <c r="A225" s="18">
         <v>216</v>
       </c>
@@ -35286,7 +35287,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="226" spans="1:239" ht="12.75" customHeight="1">
+    <row r="226" spans="1:239" ht="12.75" hidden="1" customHeight="1">
       <c r="A226" s="18">
         <v>217</v>
       </c>
@@ -35306,7 +35307,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="227" spans="1:239" ht="32.25" customHeight="1">
+    <row r="227" spans="1:239" ht="32.25" hidden="1" customHeight="1">
       <c r="A227" s="18">
         <v>218</v>
       </c>
@@ -35326,7 +35327,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="228" spans="1:239" ht="42">
+    <row r="228" spans="1:239" ht="42" hidden="1">
       <c r="A228" s="18">
         <v>219</v>
       </c>
@@ -35346,7 +35347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:239" ht="28">
+    <row r="229" spans="1:239" ht="28" hidden="1">
       <c r="A229" s="18">
         <v>220</v>
       </c>
@@ -35366,7 +35367,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="230" spans="1:239" ht="28">
+    <row r="230" spans="1:239" ht="28" hidden="1">
       <c r="A230" s="18">
         <v>221</v>
       </c>
@@ -35386,7 +35387,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="231" spans="1:239" ht="28">
+    <row r="231" spans="1:239" ht="28" hidden="1">
       <c r="A231" s="18">
         <v>222</v>
       </c>
@@ -35406,7 +35407,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="232" spans="1:239" ht="14">
+    <row r="232" spans="1:239" ht="14" hidden="1">
       <c r="A232" s="18">
         <v>223</v>
       </c>
@@ -35426,7 +35427,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="233" spans="1:239" ht="14">
+    <row r="233" spans="1:239" ht="14" hidden="1">
       <c r="A233" s="18">
         <v>224</v>
       </c>
@@ -35446,7 +35447,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="234" spans="1:239" ht="14">
+    <row r="234" spans="1:239" ht="14" hidden="1">
       <c r="A234" s="18">
         <v>225</v>
       </c>
@@ -35466,7 +35467,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="235" spans="1:239" ht="28">
+    <row r="235" spans="1:239" ht="28" hidden="1">
       <c r="A235" s="18">
         <v>226</v>
       </c>
@@ -35486,7 +35487,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="236" spans="1:239" ht="14">
+    <row r="236" spans="1:239" ht="14" hidden="1">
       <c r="A236" s="18">
         <v>227</v>
       </c>
@@ -35506,7 +35507,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="237" spans="1:239" ht="56">
+    <row r="237" spans="1:239" ht="56" hidden="1">
       <c r="A237" s="18">
         <v>228</v>
       </c>
@@ -35527,7 +35528,7 @@
       </c>
       <c r="IE237" s="22"/>
     </row>
-    <row r="238" spans="1:239" ht="56">
+    <row r="238" spans="1:239" ht="56" hidden="1">
       <c r="A238" s="18">
         <v>229</v>
       </c>
@@ -35548,7 +35549,7 @@
       </c>
       <c r="IE238" s="22"/>
     </row>
-    <row r="239" spans="1:239" ht="42">
+    <row r="239" spans="1:239" ht="42" hidden="1">
       <c r="A239" s="18">
         <v>230</v>
       </c>
@@ -35568,7 +35569,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:239" ht="42">
+    <row r="240" spans="1:239" ht="42" hidden="1">
       <c r="A240" s="18">
         <v>231</v>
       </c>
@@ -35588,7 +35589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:239" ht="42">
+    <row r="241" spans="1:239" ht="42" hidden="1">
       <c r="A241" s="18">
         <v>232</v>
       </c>
@@ -35608,7 +35609,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="242" spans="1:239" ht="42">
+    <row r="242" spans="1:239" ht="42" hidden="1">
       <c r="A242" s="18">
         <v>233</v>
       </c>
@@ -35628,7 +35629,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:239" ht="14">
+    <row r="243" spans="1:239" ht="14" hidden="1">
       <c r="A243" s="18">
         <v>234</v>
       </c>
@@ -35648,7 +35649,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="244" spans="1:239" ht="14">
+    <row r="244" spans="1:239" ht="14" hidden="1">
       <c r="A244" s="18">
         <v>235</v>
       </c>
@@ -35668,7 +35669,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="245" spans="1:239" ht="14">
+    <row r="245" spans="1:239" ht="14" hidden="1">
       <c r="A245" s="18">
         <v>236</v>
       </c>
@@ -35688,7 +35689,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="246" spans="1:239" ht="14">
+    <row r="246" spans="1:239" ht="14" hidden="1">
       <c r="A246" s="18">
         <v>237</v>
       </c>
@@ -35708,7 +35709,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="247" spans="1:239" ht="14">
+    <row r="247" spans="1:239" ht="14" hidden="1">
       <c r="A247" s="18">
         <v>238</v>
       </c>
@@ -35728,7 +35729,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="248" spans="1:239" ht="28">
+    <row r="248" spans="1:239" ht="28" hidden="1">
       <c r="A248" s="18">
         <v>239</v>
       </c>
@@ -35981,7 +35982,7 @@
       <c r="ID248" s="19"/>
       <c r="IE248" s="19"/>
     </row>
-    <row r="249" spans="1:239" ht="70">
+    <row r="249" spans="1:239" ht="70" hidden="1">
       <c r="A249" s="18">
         <v>240</v>
       </c>
@@ -36234,7 +36235,7 @@
       <c r="ID249" s="19"/>
       <c r="IE249" s="19"/>
     </row>
-    <row r="250" spans="1:239" ht="28">
+    <row r="250" spans="1:239" ht="28" hidden="1">
       <c r="A250" s="18">
         <v>241</v>
       </c>
@@ -36487,7 +36488,7 @@
       <c r="ID250" s="19"/>
       <c r="IE250" s="19"/>
     </row>
-    <row r="251" spans="1:239" ht="14">
+    <row r="251" spans="1:239" ht="14" hidden="1">
       <c r="A251" s="18">
         <v>242</v>
       </c>
@@ -36738,7 +36739,7 @@
       <c r="ID251" s="19"/>
       <c r="IE251" s="19"/>
     </row>
-    <row r="252" spans="1:239" ht="28">
+    <row r="252" spans="1:239" ht="28" hidden="1">
       <c r="A252" s="18">
         <v>243</v>
       </c>
@@ -36991,7 +36992,7 @@
       <c r="ID252" s="19"/>
       <c r="IE252" s="19"/>
     </row>
-    <row r="253" spans="1:239" ht="14">
+    <row r="253" spans="1:239" ht="14" hidden="1">
       <c r="A253" s="18">
         <v>244</v>
       </c>
@@ -37244,7 +37245,7 @@
       <c r="ID253" s="19"/>
       <c r="IE253" s="19"/>
     </row>
-    <row r="254" spans="1:239" ht="14">
+    <row r="254" spans="1:239" ht="14" hidden="1">
       <c r="A254" s="18">
         <v>245</v>
       </c>
@@ -37497,7 +37498,7 @@
       <c r="ID254" s="19"/>
       <c r="IE254" s="19"/>
     </row>
-    <row r="255" spans="1:239" ht="56">
+    <row r="255" spans="1:239" ht="56" hidden="1">
       <c r="A255" s="18">
         <v>246</v>
       </c>
@@ -37517,7 +37518,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="256" spans="1:239" s="33" customFormat="1" ht="45.5" customHeight="1">
+    <row r="256" spans="1:239" s="33" customFormat="1" ht="45.5" hidden="1" customHeight="1">
       <c r="A256" s="331" t="s">
         <v>1393</v>
       </c>
@@ -37760,7 +37761,7 @@
       <c r="ID256"/>
       <c r="IE256"/>
     </row>
-    <row r="257" spans="1:239" s="36" customFormat="1" ht="24" customHeight="1">
+    <row r="257" spans="1:239" s="36" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A257" s="35" t="s">
         <v>54</v>
       </c>
@@ -38013,7 +38014,7 @@
       <c r="ID257"/>
       <c r="IE257"/>
     </row>
-    <row r="258" spans="1:239" ht="14">
+    <row r="258" spans="1:239" ht="14" hidden="1">
       <c r="A258" s="18">
         <v>247</v>
       </c>
@@ -38033,7 +38034,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="259" spans="1:239" ht="14">
+    <row r="259" spans="1:239" ht="14" hidden="1">
       <c r="A259" s="18">
         <v>248</v>
       </c>
@@ -38054,7 +38055,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="260" spans="1:239" ht="14">
+    <row r="260" spans="1:239" ht="14" hidden="1">
       <c r="A260" s="18">
         <v>249</v>
       </c>
@@ -38075,7 +38076,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="261" spans="1:239" s="37" customFormat="1" ht="14">
+    <row r="261" spans="1:239" s="37" customFormat="1" ht="14" hidden="1">
       <c r="A261" s="18">
         <v>250</v>
       </c>
@@ -38350,7 +38351,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="263" spans="1:239" ht="14">
+    <row r="263" spans="1:239" ht="14" hidden="1">
       <c r="A263" s="18">
         <v>252</v>
       </c>
@@ -38371,7 +38372,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="264" spans="1:239" ht="14">
+    <row r="264" spans="1:239" ht="14" hidden="1">
       <c r="A264" s="18">
         <v>253</v>
       </c>
@@ -38392,7 +38393,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="265" spans="1:239" ht="14">
+    <row r="265" spans="1:239" ht="14" hidden="1">
       <c r="A265" s="18">
         <v>254</v>
       </c>
@@ -38413,7 +38414,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="266" spans="1:239" ht="14">
+    <row r="266" spans="1:239" ht="14" hidden="1">
       <c r="A266" s="18">
         <v>255</v>
       </c>
@@ -38434,7 +38435,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="267" spans="1:239" ht="14">
+    <row r="267" spans="1:239" ht="14" hidden="1">
       <c r="A267" s="18">
         <v>256</v>
       </c>
@@ -38455,7 +38456,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="268" spans="1:239" ht="14">
+    <row r="268" spans="1:239" ht="14" hidden="1">
       <c r="A268" s="18">
         <v>257</v>
       </c>
@@ -38476,7 +38477,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="269" spans="1:239" ht="14">
+    <row r="269" spans="1:239" ht="14" hidden="1">
       <c r="A269" s="18">
         <v>258</v>
       </c>
@@ -38497,7 +38498,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="270" spans="1:239" ht="14">
+    <row r="270" spans="1:239" ht="14" hidden="1">
       <c r="A270" s="18">
         <v>259</v>
       </c>
@@ -38518,7 +38519,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="271" spans="1:239" ht="14">
+    <row r="271" spans="1:239" ht="14" hidden="1">
       <c r="A271" s="18">
         <v>260</v>
       </c>
@@ -38539,7 +38540,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="272" spans="1:239" ht="14">
+    <row r="272" spans="1:239" ht="14" hidden="1">
       <c r="A272" s="18">
         <v>261</v>
       </c>
@@ -38560,7 +38561,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14">
+    <row r="273" spans="1:6" ht="14" hidden="1">
       <c r="A273" s="249">
         <v>262</v>
       </c>
@@ -38581,7 +38582,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14">
+    <row r="274" spans="1:6" ht="14" hidden="1">
       <c r="A274" s="249">
         <v>263</v>
       </c>
@@ -38600,7 +38601,7 @@
       </c>
       <c r="F274" s="326"/>
     </row>
-    <row r="275" spans="1:6" ht="14">
+    <row r="275" spans="1:6" ht="14" hidden="1">
       <c r="A275" s="249">
         <v>264</v>
       </c>
@@ -38619,7 +38620,7 @@
       </c>
       <c r="F275" s="326"/>
     </row>
-    <row r="276" spans="1:6" ht="14">
+    <row r="276" spans="1:6" ht="14" hidden="1">
       <c r="A276" s="249">
         <v>265</v>
       </c>
@@ -38638,7 +38639,7 @@
       </c>
       <c r="F276" s="326"/>
     </row>
-    <row r="277" spans="1:6" ht="14">
+    <row r="277" spans="1:6" ht="14" hidden="1">
       <c r="A277" s="249">
         <v>266</v>
       </c>
@@ -38657,7 +38658,7 @@
       </c>
       <c r="F277" s="326"/>
     </row>
-    <row r="278" spans="1:6" ht="14">
+    <row r="278" spans="1:6" ht="14" hidden="1">
       <c r="A278" s="249">
         <v>267</v>
       </c>
@@ -38676,7 +38677,7 @@
       </c>
       <c r="F278" s="326"/>
     </row>
-    <row r="279" spans="1:6" ht="56">
+    <row r="279" spans="1:6" ht="56" hidden="1">
       <c r="A279" s="255">
         <v>268</v>
       </c>
@@ -38697,7 +38698,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="28">
+    <row r="280" spans="1:6" ht="28" hidden="1">
       <c r="A280" s="249">
         <v>269</v>
       </c>
@@ -38739,7 +38740,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="14">
+    <row r="282" spans="1:6" ht="14" hidden="1">
       <c r="A282" s="249">
         <v>271</v>
       </c>
@@ -38760,7 +38761,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="28">
+    <row r="283" spans="1:6" ht="28" hidden="1">
       <c r="A283" s="249">
         <v>272</v>
       </c>
@@ -38781,7 +38782,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="14">
+    <row r="284" spans="1:6" ht="14" hidden="1">
       <c r="A284" s="249">
         <v>273</v>
       </c>
@@ -38802,7 +38803,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="14">
+    <row r="285" spans="1:6" ht="14" hidden="1">
       <c r="A285" s="18">
         <v>274</v>
       </c>
@@ -38823,7 +38824,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14">
+    <row r="286" spans="1:6" ht="14" hidden="1">
       <c r="A286" s="18">
         <v>275</v>
       </c>
@@ -38844,7 +38845,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14">
+    <row r="287" spans="1:6" ht="14" hidden="1">
       <c r="A287" s="18">
         <v>276</v>
       </c>
@@ -38865,7 +38866,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14">
+    <row r="288" spans="1:6" ht="14" hidden="1">
       <c r="A288" s="18">
         <v>277</v>
       </c>
@@ -38886,7 +38887,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="289" spans="1:239" ht="14">
+    <row r="289" spans="1:239" ht="14" hidden="1">
       <c r="A289" s="18">
         <v>278</v>
       </c>
@@ -38907,7 +38908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:239" ht="14">
+    <row r="290" spans="1:239" ht="14" hidden="1">
       <c r="A290" s="18">
         <v>279</v>
       </c>
@@ -38928,7 +38929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:239" s="16" customFormat="1" ht="14">
+    <row r="291" spans="1:239" s="16" customFormat="1" ht="14" hidden="1">
       <c r="A291" s="18">
         <v>280</v>
       </c>
@@ -39181,7 +39182,7 @@
       <c r="ID291" s="19"/>
       <c r="IE291" s="19"/>
     </row>
-    <row r="292" spans="1:239" s="16" customFormat="1" ht="14">
+    <row r="292" spans="1:239" s="16" customFormat="1" ht="14" hidden="1">
       <c r="A292" s="18">
         <v>281</v>
       </c>
@@ -39434,7 +39435,7 @@
       <c r="ID292" s="19"/>
       <c r="IE292" s="19"/>
     </row>
-    <row r="293" spans="1:239" ht="14">
+    <row r="293" spans="1:239" ht="14" hidden="1">
       <c r="A293" s="18">
         <v>282</v>
       </c>
@@ -39454,7 +39455,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="294" spans="1:239" ht="42">
+    <row r="294" spans="1:239" ht="42" hidden="1">
       <c r="A294" s="18">
         <v>283</v>
       </c>
@@ -39475,7 +39476,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="295" spans="1:239" ht="14">
+    <row r="295" spans="1:239" ht="14" hidden="1">
       <c r="A295" s="18">
         <v>284</v>
       </c>
@@ -39496,7 +39497,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="296" spans="1:239" ht="42">
+    <row r="296" spans="1:239" ht="42" hidden="1">
       <c r="A296" s="18">
         <v>285</v>
       </c>
@@ -39517,7 +39518,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="297" spans="1:239" ht="14">
+    <row r="297" spans="1:239" ht="14" hidden="1">
       <c r="A297" s="18">
         <v>286</v>
       </c>
@@ -39538,7 +39539,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="298" spans="1:239" ht="42">
+    <row r="298" spans="1:239" ht="42" hidden="1">
       <c r="A298" s="18">
         <v>287</v>
       </c>
@@ -39559,7 +39560,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="299" spans="1:239" ht="14">
+    <row r="299" spans="1:239" ht="14" hidden="1">
       <c r="A299" s="18">
         <v>288</v>
       </c>
@@ -39580,7 +39581,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="300" spans="1:239" ht="42">
+    <row r="300" spans="1:239" ht="42" hidden="1">
       <c r="A300" s="18">
         <v>289</v>
       </c>
@@ -39601,7 +39602,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="301" spans="1:239" s="38" customFormat="1" ht="345">
+    <row r="301" spans="1:239" s="38" customFormat="1" ht="345" hidden="1">
       <c r="A301" s="18">
         <v>290</v>
       </c>
@@ -39854,7 +39855,7 @@
       <c r="ID301"/>
       <c r="IE301"/>
     </row>
-    <row r="302" spans="1:239" s="38" customFormat="1" ht="14">
+    <row r="302" spans="1:239" s="38" customFormat="1" ht="14" hidden="1">
       <c r="A302" s="18">
         <v>291</v>
       </c>
@@ -40107,7 +40108,7 @@
       <c r="ID302"/>
       <c r="IE302"/>
     </row>
-    <row r="303" spans="1:239" ht="12.75" customHeight="1">
+    <row r="303" spans="1:239" ht="12.75" hidden="1" customHeight="1">
       <c r="A303" s="18">
         <v>292</v>
       </c>
@@ -40127,7 +40128,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="304" spans="1:239" ht="52.5" customHeight="1">
+    <row r="304" spans="1:239" ht="52.5" hidden="1" customHeight="1">
       <c r="A304" s="18">
         <v>293</v>
       </c>
@@ -40148,7 +40149,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="305" spans="1:239" ht="266">
+    <row r="305" spans="1:239" ht="266" hidden="1">
       <c r="A305" s="18">
         <v>294</v>
       </c>
@@ -40169,7 +40170,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="306" spans="1:239" ht="14">
+    <row r="306" spans="1:239" ht="14" hidden="1">
       <c r="A306" s="18">
         <v>295</v>
       </c>
@@ -40190,7 +40191,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="307" spans="1:239" ht="14">
+    <row r="307" spans="1:239" ht="14" hidden="1">
       <c r="A307" s="18">
         <v>296</v>
       </c>
@@ -40211,7 +40212,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="308" spans="1:239" ht="266">
+    <row r="308" spans="1:239" ht="266" hidden="1">
       <c r="A308" s="18">
         <v>297</v>
       </c>
@@ -40232,7 +40233,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="309" spans="1:239" ht="14">
+    <row r="309" spans="1:239" ht="14" hidden="1">
       <c r="A309" s="18">
         <v>298</v>
       </c>
@@ -40253,7 +40254,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="310" spans="1:239" ht="14">
+    <row r="310" spans="1:239" ht="14" hidden="1">
       <c r="A310" s="18">
         <v>299</v>
       </c>
@@ -40274,7 +40275,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="311" spans="1:239" ht="14">
+    <row r="311" spans="1:239" ht="14" hidden="1">
       <c r="A311" s="18">
         <v>300</v>
       </c>
@@ -40295,7 +40296,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="312" spans="1:239" ht="14">
+    <row r="312" spans="1:239" ht="14" hidden="1">
       <c r="A312" s="18">
         <v>301</v>
       </c>
@@ -40316,7 +40317,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="313" spans="1:239" ht="14">
+    <row r="313" spans="1:239" ht="14" hidden="1">
       <c r="A313" s="18">
         <v>302</v>
       </c>
@@ -40337,7 +40338,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="314" spans="1:239" ht="14">
+    <row r="314" spans="1:239" ht="14" hidden="1">
       <c r="A314" s="18">
         <v>303</v>
       </c>
@@ -40358,7 +40359,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="315" spans="1:239" s="38" customFormat="1" ht="14">
+    <row r="315" spans="1:239" s="38" customFormat="1" ht="14" hidden="1">
       <c r="A315" s="18">
         <v>304</v>
       </c>
@@ -40612,7 +40613,7 @@
       <c r="ID315"/>
       <c r="IE315"/>
     </row>
-    <row r="316" spans="1:239" s="33" customFormat="1" ht="30.75" customHeight="1">
+    <row r="316" spans="1:239" s="33" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A316" s="331" t="s">
         <v>1528</v>
       </c>
@@ -40855,7 +40856,7 @@
       <c r="ID316"/>
       <c r="IE316"/>
     </row>
-    <row r="317" spans="1:239" s="36" customFormat="1" ht="24" customHeight="1">
+    <row r="317" spans="1:239" s="36" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A317" s="35" t="s">
         <v>54</v>
       </c>
@@ -41108,7 +41109,7 @@
       <c r="ID317"/>
       <c r="IE317"/>
     </row>
-    <row r="318" spans="1:239" ht="28">
+    <row r="318" spans="1:239" ht="28" hidden="1">
       <c r="A318" s="18">
         <v>305</v>
       </c>
@@ -41129,7 +41130,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="319" spans="1:239" ht="14">
+    <row r="319" spans="1:239" ht="14" hidden="1">
       <c r="A319" s="18">
         <v>306</v>
       </c>
@@ -41150,7 +41151,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="320" spans="1:239" ht="28">
+    <row r="320" spans="1:239" ht="28" hidden="1">
       <c r="A320" s="18">
         <v>307</v>
       </c>
@@ -41171,7 +41172,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14">
+    <row r="321" spans="1:6" ht="14" hidden="1">
       <c r="A321" s="18">
         <v>308</v>
       </c>
@@ -41192,7 +41193,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="14">
+    <row r="322" spans="1:6" ht="14" hidden="1">
       <c r="A322" s="18">
         <v>309</v>
       </c>
@@ -41213,7 +41214,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="14">
+    <row r="323" spans="1:6" ht="14" hidden="1">
       <c r="A323" s="18">
         <v>310</v>
       </c>
@@ -41232,7 +41233,7 @@
       </c>
       <c r="F323" s="325"/>
     </row>
-    <row r="324" spans="1:6" ht="14">
+    <row r="324" spans="1:6" ht="14" hidden="1">
       <c r="A324" s="18">
         <v>311</v>
       </c>
@@ -41251,7 +41252,7 @@
       </c>
       <c r="F324" s="325"/>
     </row>
-    <row r="325" spans="1:6" ht="14">
+    <row r="325" spans="1:6" ht="14" hidden="1">
       <c r="A325" s="18">
         <v>312</v>
       </c>
@@ -41270,7 +41271,7 @@
       </c>
       <c r="F325" s="325"/>
     </row>
-    <row r="326" spans="1:6" ht="14">
+    <row r="326" spans="1:6" ht="14" hidden="1">
       <c r="A326" s="18">
         <v>313</v>
       </c>
@@ -41289,7 +41290,7 @@
       </c>
       <c r="F326" s="325"/>
     </row>
-    <row r="327" spans="1:6" ht="14">
+    <row r="327" spans="1:6" ht="14" hidden="1">
       <c r="A327" s="18">
         <v>314</v>
       </c>
@@ -41308,7 +41309,7 @@
       </c>
       <c r="F327" s="325"/>
     </row>
-    <row r="328" spans="1:6" ht="56">
+    <row r="328" spans="1:6" ht="56" hidden="1">
       <c r="A328" s="18">
         <v>315</v>
       </c>
@@ -41329,7 +41330,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="28">
+    <row r="329" spans="1:6" ht="28" hidden="1">
       <c r="A329" s="18">
         <v>316</v>
       </c>
@@ -41371,7 +41372,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="14">
+    <row r="331" spans="1:6" ht="14" hidden="1">
       <c r="A331" s="18">
         <v>318</v>
       </c>
@@ -41392,7 +41393,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="14">
+    <row r="332" spans="1:6" ht="14" hidden="1">
       <c r="A332" s="18">
         <v>319</v>
       </c>
@@ -41413,7 +41414,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="14">
+    <row r="333" spans="1:6" ht="14" hidden="1">
       <c r="A333" s="18">
         <v>320</v>
       </c>
@@ -41434,7 +41435,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="28">
+    <row r="334" spans="1:6" ht="28" hidden="1">
       <c r="A334" s="18">
         <v>321</v>
       </c>
@@ -41455,7 +41456,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="14">
+    <row r="335" spans="1:6" ht="14" hidden="1">
       <c r="A335" s="18">
         <v>322</v>
       </c>
@@ -41476,7 +41477,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="42">
+    <row r="336" spans="1:6" ht="42" hidden="1">
       <c r="A336" s="18">
         <v>323</v>
       </c>
@@ -41497,7 +41498,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="337" spans="1:239" ht="42">
+    <row r="337" spans="1:239" ht="42" hidden="1">
       <c r="A337" s="18">
         <v>324</v>
       </c>
@@ -41518,7 +41519,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="338" spans="1:239" ht="28">
+    <row r="338" spans="1:239" ht="28" hidden="1">
       <c r="A338" s="18">
         <v>325</v>
       </c>
@@ -41539,7 +41540,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="339" spans="1:239" ht="14">
+    <row r="339" spans="1:239" ht="14" hidden="1">
       <c r="A339" s="18">
         <v>326</v>
       </c>
@@ -41560,7 +41561,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="340" spans="1:239" ht="14">
+    <row r="340" spans="1:239" ht="14" hidden="1">
       <c r="A340" s="18">
         <v>327</v>
       </c>
@@ -41581,7 +41582,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="341" spans="1:239" ht="14">
+    <row r="341" spans="1:239" ht="14" hidden="1">
       <c r="A341" s="18">
         <v>328</v>
       </c>
@@ -41602,7 +41603,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="342" spans="1:239" ht="14">
+    <row r="342" spans="1:239" ht="14" hidden="1">
       <c r="A342" s="18">
         <v>329</v>
       </c>
@@ -41623,7 +41624,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="343" spans="1:239" ht="98">
+    <row r="343" spans="1:239" ht="98" hidden="1">
       <c r="A343" s="18">
         <v>330</v>
       </c>
@@ -41644,7 +41645,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="344" spans="1:239" s="38" customFormat="1" ht="14">
+    <row r="344" spans="1:239" s="38" customFormat="1" ht="14" hidden="1">
       <c r="A344" s="18">
         <v>331</v>
       </c>
@@ -41898,7 +41899,7 @@
       <c r="ID344"/>
       <c r="IE344"/>
     </row>
-    <row r="345" spans="1:239" ht="14">
+    <row r="345" spans="1:239" ht="14" hidden="1">
       <c r="A345" s="18">
         <v>332</v>
       </c>
@@ -41919,7 +41920,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="346" spans="1:239" ht="14">
+    <row r="346" spans="1:239" ht="14" hidden="1">
       <c r="A346" s="18">
         <v>333</v>
       </c>
@@ -41940,7 +41941,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="347" spans="1:239" ht="14">
+    <row r="347" spans="1:239" ht="14" hidden="1">
       <c r="A347" s="18">
         <v>334</v>
       </c>
@@ -41961,7 +41962,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="348" spans="1:239" ht="14">
+    <row r="348" spans="1:239" ht="14" hidden="1">
       <c r="A348" s="18">
         <v>335</v>
       </c>
@@ -41982,7 +41983,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="349" spans="1:239" ht="14">
+    <row r="349" spans="1:239" ht="14" hidden="1">
       <c r="A349" s="18">
         <v>336</v>
       </c>
@@ -42003,7 +42004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="350" spans="1:239" ht="14">
+    <row r="350" spans="1:239" ht="14" hidden="1">
       <c r="A350" s="18">
         <v>337</v>
       </c>
@@ -42024,7 +42025,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="351" spans="1:239" ht="14">
+    <row r="351" spans="1:239" ht="14" hidden="1">
       <c r="A351" s="18">
         <v>338</v>
       </c>
@@ -42045,7 +42046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="352" spans="1:239" ht="14">
+    <row r="352" spans="1:239" ht="14" hidden="1">
       <c r="A352" s="18">
         <v>339</v>
       </c>
@@ -42066,7 +42067,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:239" ht="28">
+    <row r="353" spans="1:239" ht="28" hidden="1">
       <c r="A353" s="18">
         <v>340</v>
       </c>
@@ -42087,7 +42088,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="354" spans="1:239" ht="14">
+    <row r="354" spans="1:239" ht="14" hidden="1">
       <c r="A354" s="18">
         <v>341</v>
       </c>
@@ -42107,7 +42108,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="355" spans="1:239" ht="14">
+    <row r="355" spans="1:239" ht="14" hidden="1">
       <c r="A355" s="270">
         <v>342</v>
       </c>
@@ -42127,7 +42128,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="356" spans="1:239" ht="14">
+    <row r="356" spans="1:239" ht="14" hidden="1">
       <c r="A356" s="270">
         <v>343</v>
       </c>
@@ -42147,7 +42148,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="357" spans="1:239" ht="14">
+    <row r="357" spans="1:239" ht="14" hidden="1">
       <c r="A357" s="270">
         <v>344</v>
       </c>
@@ -42167,7 +42168,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="358" spans="1:239" ht="14">
+    <row r="358" spans="1:239" ht="14" hidden="1">
       <c r="A358" s="270">
         <v>345</v>
       </c>
@@ -42187,7 +42188,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="359" spans="1:239" ht="14">
+    <row r="359" spans="1:239" ht="14" hidden="1">
       <c r="A359" s="270">
         <v>346</v>
       </c>
@@ -42207,7 +42208,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="360" spans="1:239" ht="14">
+    <row r="360" spans="1:239" ht="14" hidden="1">
       <c r="A360" s="270">
         <v>347</v>
       </c>
@@ -42227,7 +42228,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="361" spans="1:239" ht="14">
+    <row r="361" spans="1:239" ht="14" hidden="1">
       <c r="A361" s="270">
         <v>348</v>
       </c>
@@ -42247,7 +42248,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="362" spans="1:239" ht="14">
+    <row r="362" spans="1:239" ht="14" hidden="1">
       <c r="A362" s="270">
         <v>349</v>
       </c>
@@ -42267,7 +42268,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="363" spans="1:239" ht="14">
+    <row r="363" spans="1:239" ht="14" hidden="1">
       <c r="A363" s="270">
         <v>350</v>
       </c>
@@ -42287,7 +42288,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="364" spans="1:239" ht="14">
+    <row r="364" spans="1:239" ht="14" hidden="1">
       <c r="A364" s="270">
         <v>351</v>
       </c>
@@ -42307,7 +42308,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="365" spans="1:239" ht="14">
+    <row r="365" spans="1:239" ht="14" hidden="1">
       <c r="A365" s="18">
         <v>352</v>
       </c>
@@ -42327,7 +42328,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="1:239" s="39" customFormat="1" ht="14">
+    <row r="366" spans="1:239" s="39" customFormat="1" ht="14" hidden="1">
       <c r="A366" s="18">
         <v>353</v>
       </c>
@@ -42580,7 +42581,7 @@
       <c r="ID366" s="19"/>
       <c r="IE366" s="19"/>
     </row>
-    <row r="367" spans="1:239" s="39" customFormat="1">
+    <row r="367" spans="1:239" s="39" customFormat="1" hidden="1">
       <c r="B367" s="32">
         <f>SUM(B366+C366)-1</f>
         <v>4000</v>
@@ -42840,6 +42841,17 @@
       <c r="F369" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A8:IE367" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="County of Birth"/>
+        <filter val="County of Birth (Literal)"/>
+        <filter val="Mother's Mailing Address County (Literal)"/>
+        <filter val="Mother's Residence County (Literal)"/>
+        <filter val="Residence of Mother--County"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
     <customSheetView guid="{F1069C25-F3CC-400B-8C16-E88E31027CCC}" fitToPage="1">
       <selection activeCell="A11" sqref="A11"/>
@@ -42877,8 +42889,8 @@
   </sheetPr>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A146" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -46981,7 +46993,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="28">
+    <row r="209" spans="1:6" ht="14">
       <c r="A209" s="132">
         <v>201</v>
       </c>
@@ -50447,7 +50459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -53923,7 +53935,7 @@
   </sheetPr>
   <dimension ref="A1:IE368"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -67977,10 +67989,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68183,30 +68206,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68225,27 +68254,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C62024-E97C-1444-9563-CF670A55B3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000182D3-9D7C-C542-9CE1-848194F2FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2690">
   <si>
     <t>u</t>
   </si>
@@ -9321,6 +9321,9 @@
   </si>
   <si>
     <t>[AdministrativeGenderVS](http://hl7.org/fhir/R4/valueset-administrative-gender.html) - See [Note on Decedent Gender]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension[ SpouseAlive] </t>
   </si>
 </sst>
 </file>
@@ -11876,8 +11879,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K37" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -17641,7 +17644,7 @@
         <v>2318</v>
       </c>
       <c r="I164" s="16" t="s">
-        <v>2571</v>
+        <v>2689</v>
       </c>
       <c r="J164" s="16" t="s">
         <v>2361</v>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000182D3-9D7C-C542-9CE1-848194F2FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5B87F-FC3D-DC4F-B884-DE4B69B40EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2693">
   <si>
     <t>u</t>
   </si>
@@ -9324,6 +9324,15 @@
   </si>
   <si>
     <t xml:space="preserve">extension[ SpouseAlive] </t>
+  </si>
+  <si>
+    <t>address.district.extension[districtCode]</t>
+  </si>
+  <si>
+    <t>address.district.extension[ districtCode].value</t>
+  </si>
+  <si>
+    <t>address.district.extension[ districtCode ]</t>
   </si>
 </sst>
 </file>
@@ -11879,8 +11888,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -11914,7 +11923,7 @@
       </c>
       <c r="G1" s="296"/>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="78">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="65">
       <c r="A2" s="228"/>
       <c r="B2" s="229"/>
       <c r="C2" s="229"/>
@@ -13181,7 +13190,7 @@
         <v>2318</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>2601</v>
+        <v>2692</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>2320</v>
@@ -13447,7 +13456,7 @@
         <v>2347</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>2354</v>
+        <v>2690</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>2320</v>
@@ -18838,7 +18847,7 @@
         <v>2449</v>
       </c>
       <c r="I198" s="16" t="s">
-        <v>2457</v>
+        <v>2691</v>
       </c>
       <c r="J198" s="16" t="s">
         <v>2320</v>
@@ -19746,7 +19755,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="28">
+    <row r="224" spans="1:12" ht="14">
       <c r="A224" s="15">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -32050,7 +32059,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28" hidden="1">
+    <row r="64" spans="1:6" ht="14" hidden="1">
       <c r="A64" s="18">
         <v>55</v>
       </c>
@@ -67992,21 +68001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68209,36 +68203,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68257,6 +68241,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b113022-9134-4b2e-abe8-26e86c9e296e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5B87F-FC3D-DC4F-B884-DE4B69B40EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F16F6-D5FB-4B43-86F6-EDC241DF111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="4" hidden="1">Natality!$1:$8</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="2" hidden="1">Surveillance!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="William Bolton - Personal View" guid="{F1069C25-F3CC-400B-8C16-E88E31027CCC}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1024" windowHeight="576" tabRatio="779" activeSheetId="1"/>
   </customWorkbookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2695">
   <si>
     <t>u</t>
   </si>
@@ -9333,6 +9333,12 @@
   </si>
   <si>
     <t>address.district.extension[ districtCode ]</t>
+  </si>
+  <si>
+    <t>Six digit number.  Leading zeroes optional.</t>
+  </si>
+  <si>
+    <t>12 digit number</t>
   </si>
 </sst>
 </file>
@@ -11888,8 +11894,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -12209,8 +12215,8 @@
       <c r="J11" s="16" t="s">
         <v>2374</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>2595</v>
+      <c r="K11" s="16" t="s">
+        <v>2693</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>2575</v>
@@ -12245,8 +12251,8 @@
       <c r="J12" s="16" t="s">
         <v>2374</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>2595</v>
+      <c r="K12" s="16" t="s">
+        <v>2693</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>2575</v>
@@ -12281,8 +12287,8 @@
       <c r="J13" s="16" t="s">
         <v>2374</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>2595</v>
+      <c r="K13" s="16" t="s">
+        <v>2693</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>2575</v>
@@ -12351,8 +12357,8 @@
       <c r="J15" s="16" t="s">
         <v>2390</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>2595</v>
+      <c r="K15" s="16" t="s">
+        <v>2694</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>2575</v>
@@ -12387,8 +12393,8 @@
       <c r="J16" s="16" t="s">
         <v>2390</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>2595</v>
+      <c r="K16" s="16" t="s">
+        <v>2694</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>2575</v>
@@ -12423,8 +12429,8 @@
       <c r="J17" s="16" t="s">
         <v>2390</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>2595</v>
+      <c r="K17" s="16" t="s">
+        <v>2694</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>2575</v>
@@ -15544,8 +15550,8 @@
       <c r="J102" s="16" t="s">
         <v>2374</v>
       </c>
-      <c r="K102" s="7" t="s">
-        <v>2595</v>
+      <c r="K102" s="16" t="s">
+        <v>2693</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>2575</v>
@@ -16157,7 +16163,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28">
+    <row r="121" spans="1:12" ht="14">
       <c r="A121" s="15">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -18104,7 +18110,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="28">
+    <row r="177" spans="1:12" ht="14">
       <c r="A177" s="15">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -68001,6 +68007,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68203,26 +68218,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68241,15 +68255,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -68264,12 +68278,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F16F6-D5FB-4B43-86F6-EDC241DF111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B76C0A-708F-684D-85E1-D17C1495C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="4" hidden="1">Natality!$1:$8</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="2" hidden="1">Surveillance!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="William Bolton - Personal View" guid="{F1069C25-F3CC-400B-8C16-E88E31027CCC}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1024" windowHeight="576" tabRatio="779" activeSheetId="1"/>
   </customWorkbookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2696">
   <si>
     <t>u</t>
   </si>
@@ -9339,6 +9339,9 @@
   </si>
   <si>
     <t>12 digit number</t>
+  </si>
+  <si>
+    <t>a code from [PlaceOfInjuryVS] is required, an optional code from [PlaceOfInjuryOtherVS] can also be provided.</t>
   </si>
 </sst>
 </file>
@@ -11894,8 +11897,8 @@
   </sheetPr>
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="E105" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -16160,7 +16163,7 @@
         <v>2361</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>2616</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14">
@@ -68007,15 +68010,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68218,25 +68212,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68255,15 +68250,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -68278,4 +68273,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B76C0A-708F-684D-85E1-D17C1495C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CDC5E-AF75-5C42-85E0-C7D31986C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9341,7 +9341,7 @@
     <t>12 digit number</t>
   </si>
   <si>
-    <t>a code from [PlaceOfInjuryVS] is required, an optional code from [PlaceOfInjuryOtherVS] can also be provided.</t>
+    <t>A code from [PlaceOfInjuryVS] is required, an optional code from [PlaceOfInjuryOtherVS] can also be provided when the primary code is Other.</t>
   </si>
 </sst>
 </file>
@@ -11898,7 +11898,7 @@
   <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E105" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>

--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F16F6-D5FB-4B43-86F6-EDC241DF111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E0A2CB-557E-404F-8FD2-C294C0B172BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,13 @@
     <sheet name="Birth Infant Death" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality!$A$5:$L$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality!$A$5:$L$281</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$255</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Natality!$A$8:$IE$367</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Surveillance!$A$5:$L$164</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Birth Infant Death'!$A$1:$F$368</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Fetal Death'!$A$1:$F$376</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Mortality!$A$1:$F$283</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Mortality!$A$1:$F$284</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Mortality Roster'!$A$1:$F$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Natality!$A$1:$F$369</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Surveillance!$A$1:$F$167</definedName>
@@ -39,12 +39,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Mortality Roster'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">Natality!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Surveillance!$1:$4</definedName>
-    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="1" hidden="1">Mortality!$B$5:$M$285</definedName>
+    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="1" hidden="1">Mortality!$B$5:$M$286</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="3" hidden="1">'Mortality Roster'!$B$7:$K$255</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="2" hidden="1">Surveillance!$B$5:$M$169</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="7" hidden="1">'Birth Infant Death'!$A$1:$F$368</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="5" hidden="1">'Fetal Death'!$A$2:$F$376</definedName>
-    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="1" hidden="1">Mortality!$A$1:$F$285</definedName>
+    <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="1" hidden="1">Mortality!$A$1:$F$286</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="3" hidden="1">'Mortality Roster'!$A$2:$F$44</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="4" hidden="1">Natality!$A$1:$F$369</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintArea" localSheetId="2" hidden="1">Surveillance!$A$1:$F$169</definedName>
@@ -55,7 +55,7 @@
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="4" hidden="1">Natality!$1:$8</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.PrintTitles" localSheetId="2" hidden="1">Surveillance!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="William Bolton - Personal View" guid="{F1069C25-F3CC-400B-8C16-E88E31027CCC}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1024" windowHeight="576" tabRatio="779" activeSheetId="1"/>
   </customWorkbookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7742" uniqueCount="2697">
   <si>
     <t>u</t>
   </si>
@@ -9339,6 +9339,12 @@
   </si>
   <si>
     <t>12 digit number</t>
+  </si>
+  <si>
+    <t>A code from [PlaceOfInjuryVS] is required, an optional code from [PlaceOfInjuryOtherVS] can also be provided when the primary code is Other.</t>
+  </si>
+  <si>
+    <t>identifier.extension[ stateSpecificField]</t>
   </si>
 </sst>
 </file>
@@ -11892,10 +11898,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L284"/>
+  <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -16099,11 +16105,11 @@
     </row>
     <row r="119" spans="1:12" ht="14">
       <c r="A119" s="15">
-        <f t="shared" ref="A119:A147" si="4">A118+1</f>
+        <f t="shared" ref="A119:A148" si="4">A118+1</f>
         <v>102</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" ref="B119:B145" si="5">B118+C118</f>
+        <f t="shared" ref="B119:B146" si="5">B118+C118</f>
         <v>703</v>
       </c>
       <c r="C119" s="3">
@@ -16160,7 +16166,7 @@
         <v>2361</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>2616</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14">
@@ -16907,61 +16913,64 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14">
+    <row r="143" spans="1:12" ht="42">
       <c r="A143" s="15">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <f>A139+1</f>
+        <v>122</v>
       </c>
       <c r="B143" s="260">
-        <f t="shared" si="5"/>
-        <v>1067</v>
+        <f>B139+C139</f>
+        <v>1037</v>
       </c>
       <c r="C143" s="261">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D143" s="251" t="s">
-        <v>328</v>
-      </c>
-      <c r="E143" s="262" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E143" s="252" t="s">
+        <v>2395</v>
       </c>
       <c r="F143" s="263" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G143" s="251"/>
       <c r="H143" s="2" t="s">
-        <v>2448</v>
+        <v>2603</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>2373</v>
+        <v>2696</v>
       </c>
       <c r="J143" s="16" t="s">
-        <v>2332</v>
-      </c>
-      <c r="K143" s="16" t="s">
-        <v>2453</v>
+        <v>2397</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>2575</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14">
       <c r="A144" s="15">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f>A142+1</f>
+        <v>123</v>
       </c>
       <c r="B144" s="260">
-        <f t="shared" si="5"/>
-        <v>1069</v>
+        <f>B142+C142</f>
+        <v>1067</v>
       </c>
       <c r="C144" s="261">
         <v>2</v>
       </c>
       <c r="D144" s="251" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E144" s="262" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F144" s="263" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G144" s="251"/>
       <c r="H144" s="2" t="s">
@@ -16980,23 +16989,23 @@
     <row r="145" spans="1:11" ht="14">
       <c r="A145" s="15">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B145" s="260">
         <f t="shared" si="5"/>
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C145" s="261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D145" s="251" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E145" s="262" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F145" s="263" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G145" s="251"/>
       <c r="H145" s="2" t="s">
@@ -17015,207 +17024,207 @@
     <row r="146" spans="1:11" ht="14">
       <c r="A146" s="15">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B146" s="260">
-        <v>1075</v>
+        <f t="shared" si="5"/>
+        <v>1071</v>
       </c>
       <c r="C146" s="261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" s="251" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E146" s="262" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F146" s="263" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G146" s="251"/>
-      <c r="H146" s="16" t="s">
-        <v>2438</v>
+      <c r="H146" s="2" t="s">
+        <v>2448</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>2439</v>
+        <v>2373</v>
       </c>
       <c r="J146" s="16" t="s">
-        <v>2643</v>
-      </c>
-      <c r="K146" s="16"/>
+        <v>2332</v>
+      </c>
+      <c r="K146" s="16" t="s">
+        <v>2453</v>
+      </c>
     </row>
     <row r="147" spans="1:11" ht="14">
       <c r="A147" s="15">
         <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B147" s="260">
+        <v>1075</v>
+      </c>
+      <c r="C147" s="261">
+        <v>1</v>
+      </c>
+      <c r="D147" s="251" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" s="262" t="s">
+        <v>338</v>
+      </c>
+      <c r="F147" s="263" t="s">
+        <v>339</v>
+      </c>
+      <c r="G147" s="251"/>
+      <c r="H147" s="16" t="s">
+        <v>2438</v>
+      </c>
+      <c r="I147" s="16" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J147" s="16" t="s">
+        <v>2643</v>
+      </c>
+      <c r="K147" s="16"/>
+    </row>
+    <row r="148" spans="1:11" ht="14">
+      <c r="A148" s="15">
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B148" s="1">
         <v>1076</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C148" s="3">
         <v>5</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E148" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F147" s="86" t="s">
+      <c r="F148" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="16" t="s">
+      <c r="G148" s="2"/>
+      <c r="H148" s="16" t="s">
         <v>2330</v>
       </c>
-      <c r="K147" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="50" customHeight="1">
-      <c r="A148" s="319" t="s">
-        <v>343</v>
-      </c>
-      <c r="B148" s="320"/>
-      <c r="C148" s="320"/>
-      <c r="D148" s="320"/>
-      <c r="E148" s="320"/>
-      <c r="F148" s="321"/>
-      <c r="G148" s="298"/>
       <c r="K148" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14">
-      <c r="A149" s="15">
-        <f>A147+1</f>
+    <row r="149" spans="1:11" ht="50" customHeight="1">
+      <c r="A149" s="319" t="s">
+        <v>343</v>
+      </c>
+      <c r="B149" s="320"/>
+      <c r="C149" s="320"/>
+      <c r="D149" s="320"/>
+      <c r="E149" s="320"/>
+      <c r="F149" s="321"/>
+      <c r="G149" s="298"/>
+      <c r="K149" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14">
+      <c r="A150" s="15">
+        <f>A148+1</f>
         <v>128</v>
       </c>
-      <c r="B149" s="3">
-        <f>B147+C147</f>
+      <c r="B150" s="3">
+        <f>B148+C148</f>
         <v>1081</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C150" s="3">
         <v>1</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E150" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="F149" s="82" t="s">
+      <c r="F150" s="82" t="s">
         <v>346</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>2476</v>
-      </c>
-      <c r="H149" s="16" t="s">
-        <v>2420</v>
-      </c>
-      <c r="I149" s="16" t="s">
-        <v>2373</v>
-      </c>
-      <c r="J149" s="16" t="s">
-        <v>2361</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="28">
-      <c r="A150" s="15">
-        <f>A149+1</f>
-        <v>129</v>
-      </c>
-      <c r="B150" s="1">
-        <f t="shared" ref="B150:B205" si="6">B149+C149</f>
-        <v>1082</v>
-      </c>
-      <c r="C150" s="3">
-        <v>30</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F150" s="83" t="s">
-        <v>349</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>2476</v>
       </c>
       <c r="H150" s="16" t="s">
+        <v>2420</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J150" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="28">
+      <c r="A151" s="15">
+        <f>A150+1</f>
+        <v>129</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" ref="B151:B206" si="6">B150+C150</f>
+        <v>1082</v>
+      </c>
+      <c r="C151" s="3">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F151" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H151" s="16" t="s">
         <v>2347</v>
       </c>
-      <c r="I150" s="16" t="s">
+      <c r="I151" s="16" t="s">
         <v>2430</v>
       </c>
-      <c r="J150" s="16" t="s">
+      <c r="J151" s="16" t="s">
         <v>2363</v>
       </c>
-      <c r="K150" s="7" t="s">
+      <c r="K151" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="56">
-      <c r="A151" s="15">
-        <f t="shared" ref="A151:A214" si="7">A150+1</f>
+    <row r="152" spans="1:11" ht="56">
+      <c r="A152" s="15">
+        <f t="shared" ref="A152:A215" si="7">A151+1</f>
         <v>130</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B152" s="1">
         <f t="shared" si="6"/>
         <v>1112</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C152" s="3">
         <v>50</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E152" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F151" s="224" t="s">
+      <c r="F152" s="224" t="s">
         <v>352</v>
       </c>
-      <c r="G151" s="115" t="s">
-        <v>2476</v>
-      </c>
-      <c r="H151" s="16" t="s">
-        <v>2347</v>
-      </c>
-      <c r="I151" s="16" t="s">
-        <v>2353</v>
-      </c>
-      <c r="J151" s="16" t="s">
-        <v>2363</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="14">
-      <c r="A152" s="15">
-        <f t="shared" si="7"/>
-        <v>131</v>
-      </c>
-      <c r="B152" s="1">
-        <f t="shared" ref="B152:B161" si="8">B151+C151</f>
-        <v>1162</v>
-      </c>
-      <c r="C152" s="3">
-        <v>10</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F152" s="83"/>
       <c r="G152" s="115" t="s">
         <v>2476</v>
       </c>
@@ -17223,10 +17232,10 @@
         <v>2347</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>2345</v>
+        <v>2353</v>
       </c>
       <c r="J152" s="16" t="s">
-        <v>2322</v>
+        <v>2363</v>
       </c>
       <c r="K152" s="7" t="s">
         <v>2595</v>
@@ -17235,20 +17244,20 @@
     <row r="153" spans="1:11" ht="14">
       <c r="A153" s="15">
         <f t="shared" si="7"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="1">
-        <f t="shared" si="8"/>
-        <v>1172</v>
+        <f t="shared" ref="B153:B162" si="8">B152+C152</f>
+        <v>1162</v>
       </c>
       <c r="C153" s="3">
         <v>10</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F153" s="83"/>
       <c r="G153" s="115" t="s">
@@ -17257,8 +17266,8 @@
       <c r="H153" s="16" t="s">
         <v>2347</v>
       </c>
-      <c r="I153" s="7" t="s">
-        <v>2339</v>
+      <c r="I153" s="16" t="s">
+        <v>2345</v>
       </c>
       <c r="J153" s="16" t="s">
         <v>2322</v>
@@ -17270,20 +17279,20 @@
     <row r="154" spans="1:11" ht="14">
       <c r="A154" s="15">
         <f t="shared" si="7"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="8"/>
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="C154" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F154" s="83"/>
       <c r="G154" s="115" t="s">
@@ -17292,8 +17301,8 @@
       <c r="H154" s="16" t="s">
         <v>2347</v>
       </c>
-      <c r="I154" s="16" t="s">
-        <v>2340</v>
+      <c r="I154" s="7" t="s">
+        <v>2339</v>
       </c>
       <c r="J154" s="16" t="s">
         <v>2322</v>
@@ -17305,20 +17314,20 @@
     <row r="155" spans="1:11" ht="14">
       <c r="A155" s="15">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="8"/>
-        <v>1232</v>
+        <v>1182</v>
       </c>
       <c r="C155" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F155" s="83"/>
       <c r="G155" s="115" t="s">
@@ -17328,7 +17337,7 @@
         <v>2347</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="J155" s="16" t="s">
         <v>2322</v>
@@ -17340,20 +17349,20 @@
     <row r="156" spans="1:11" ht="14">
       <c r="A156" s="15">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="8"/>
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="C156" s="3">
         <v>10</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F156" s="83"/>
       <c r="G156" s="115" t="s">
@@ -17363,7 +17372,7 @@
         <v>2347</v>
       </c>
       <c r="I156" s="16" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="J156" s="16" t="s">
         <v>2322</v>
@@ -17375,24 +17384,22 @@
     <row r="157" spans="1:11" ht="14">
       <c r="A157" s="15">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="8"/>
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="C157" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F157" s="83" t="s">
-        <v>365</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F157" s="83"/>
       <c r="G157" s="115" t="s">
         <v>2476</v>
       </c>
@@ -17400,7 +17407,7 @@
         <v>2347</v>
       </c>
       <c r="I157" s="16" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="J157" s="16" t="s">
         <v>2322</v>
@@ -17412,23 +17419,23 @@
     <row r="158" spans="1:11" ht="14">
       <c r="A158" s="15">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="8"/>
-        <v>1280</v>
+        <v>1252</v>
       </c>
       <c r="C158" s="3">
         <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F158" s="83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G158" s="115" t="s">
         <v>2476</v>
@@ -17437,7 +17444,7 @@
         <v>2347</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>2352</v>
+        <v>2343</v>
       </c>
       <c r="J158" s="16" t="s">
         <v>2322</v>
@@ -17446,26 +17453,26 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="28">
+    <row r="159" spans="1:11" ht="14">
       <c r="A159" s="15">
         <f t="shared" si="7"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="8"/>
-        <v>1308</v>
+        <v>1280</v>
       </c>
       <c r="C159" s="3">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F159" s="83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G159" s="115" t="s">
         <v>2476</v>
@@ -17474,7 +17481,7 @@
         <v>2347</v>
       </c>
       <c r="I159" s="16" t="s">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="J159" s="16" t="s">
         <v>2322</v>
@@ -17483,26 +17490,26 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="14">
+    <row r="160" spans="1:11" ht="28">
       <c r="A160" s="15">
         <f t="shared" si="7"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="8"/>
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="C160" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F160" s="83" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G160" s="115" t="s">
         <v>2476</v>
@@ -17511,7 +17518,7 @@
         <v>2347</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="J160" s="16" t="s">
         <v>2322</v>
@@ -17520,26 +17527,26 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="42">
+    <row r="161" spans="1:12" ht="14">
       <c r="A161" s="15">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="8"/>
-        <v>1345</v>
+        <v>1317</v>
       </c>
       <c r="C161" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F161" s="83" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G161" s="115" t="s">
         <v>2476</v>
@@ -17548,35 +17555,35 @@
         <v>2347</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>2458</v>
+        <v>2348</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>2320</v>
-      </c>
-      <c r="K161" s="16" t="s">
-        <v>2454</v>
+        <v>2322</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>2595</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="42">
       <c r="A162" s="15">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="1">
-        <f t="shared" si="6"/>
-        <v>1350</v>
+        <f t="shared" si="8"/>
+        <v>1345</v>
       </c>
       <c r="C162" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F162" s="83" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G162" s="115" t="s">
         <v>2476</v>
@@ -17585,35 +17592,35 @@
         <v>2347</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>2366</v>
+        <v>2458</v>
       </c>
       <c r="J162" s="16" t="s">
-        <v>2367</v>
-      </c>
-      <c r="K162" s="7" t="s">
-        <v>2595</v>
+        <v>2320</v>
+      </c>
+      <c r="K162" s="16" t="s">
+        <v>2454</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="42">
       <c r="A163" s="15">
         <f t="shared" si="7"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="6"/>
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="C163" s="3">
         <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F163" s="83" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G163" s="115" t="s">
         <v>2476</v>
@@ -17622,7 +17629,7 @@
         <v>2347</v>
       </c>
       <c r="I163" s="16" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="J163" s="16" t="s">
         <v>2367</v>
@@ -17631,97 +17638,97 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="28">
+    <row r="164" spans="1:12" ht="42">
       <c r="A164" s="15">
         <f t="shared" si="7"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="6"/>
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F164" s="83" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G164" s="115" t="s">
         <v>2476</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>2318</v>
+        <v>2347</v>
       </c>
       <c r="I164" s="16" t="s">
-        <v>2689</v>
+        <v>2365</v>
       </c>
       <c r="J164" s="16" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="14">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="28">
       <c r="A165" s="15">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="6"/>
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C165" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F165" s="83" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G165" s="115" t="s">
         <v>2476</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>2418</v>
+        <v>2318</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>2416</v>
+        <v>2689</v>
       </c>
       <c r="J165" s="16" t="s">
-        <v>2322</v>
+        <v>2361</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="28">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="14">
       <c r="A166" s="15">
         <f t="shared" si="7"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="6"/>
-        <v>1435</v>
+        <v>1385</v>
       </c>
       <c r="C166" s="3">
         <v>50</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F166" s="83" t="s">
         <v>389</v>
@@ -17732,8 +17739,8 @@
       <c r="H166" s="16" t="s">
         <v>2418</v>
       </c>
-      <c r="I166" s="7" t="s">
-        <v>2419</v>
+      <c r="I166" s="16" t="s">
+        <v>2416</v>
       </c>
       <c r="J166" s="16" t="s">
         <v>2322</v>
@@ -17742,67 +17749,68 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="14">
+    <row r="167" spans="1:12" ht="28">
       <c r="A167" s="15">
         <f t="shared" si="7"/>
-        <v>146</v>
-      </c>
-      <c r="B167" s="260">
+        <v>145</v>
+      </c>
+      <c r="B167" s="1">
         <f t="shared" si="6"/>
-        <v>1485</v>
-      </c>
-      <c r="C167" s="261">
-        <v>10</v>
-      </c>
-      <c r="D167" s="251" t="s">
-        <v>392</v>
-      </c>
-      <c r="E167" s="262" t="s">
-        <v>393</v>
-      </c>
-      <c r="F167" s="263"/>
-      <c r="G167" s="251"/>
+        <v>1435</v>
+      </c>
+      <c r="C167" s="3">
+        <v>50</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F167" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="G167" s="115" t="s">
+        <v>2476</v>
+      </c>
       <c r="H167" s="16" t="s">
-        <v>2318</v>
-      </c>
-      <c r="I167" s="16" t="s">
-        <v>2345</v>
+        <v>2418</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>2419</v>
       </c>
       <c r="J167" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K167" s="7" t="s">
         <v>2595</v>
-      </c>
-      <c r="L167" s="7" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14">
       <c r="A168" s="15">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="260">
         <f t="shared" si="6"/>
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="C168" s="261">
         <v>10</v>
       </c>
       <c r="D168" s="251" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E168" s="262" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F168" s="263"/>
       <c r="G168" s="251"/>
       <c r="H168" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I168" s="7" t="s">
-        <v>2339</v>
+      <c r="I168" s="16" t="s">
+        <v>2345</v>
       </c>
       <c r="J168" s="16" t="s">
         <v>2322</v>
@@ -17817,28 +17825,28 @@
     <row r="169" spans="1:12" ht="14">
       <c r="A169" s="15">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="260">
         <f t="shared" si="6"/>
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="C169" s="261">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D169" s="251" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E169" s="262" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F169" s="263"/>
       <c r="G169" s="251"/>
       <c r="H169" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I169" s="16" t="s">
-        <v>2340</v>
+      <c r="I169" s="7" t="s">
+        <v>2339</v>
       </c>
       <c r="J169" s="16" t="s">
         <v>2322</v>
@@ -17850,23 +17858,23 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="28">
+    <row r="170" spans="1:12" ht="14">
       <c r="A170" s="15">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="260">
         <f t="shared" si="6"/>
-        <v>1533</v>
+        <v>1505</v>
       </c>
       <c r="C170" s="261">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D170" s="251" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E170" s="262" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F170" s="263"/>
       <c r="G170" s="251"/>
@@ -17874,7 +17882,7 @@
         <v>2318</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="J170" s="16" t="s">
         <v>2322</v>
@@ -17886,23 +17894,23 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="14">
+    <row r="171" spans="1:12" ht="28">
       <c r="A171" s="15">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="260">
         <f t="shared" si="6"/>
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="C171" s="261">
         <v>10</v>
       </c>
       <c r="D171" s="251" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E171" s="262" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F171" s="263"/>
       <c r="G171" s="251"/>
@@ -17910,7 +17918,7 @@
         <v>2318</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="J171" s="16" t="s">
         <v>2322</v>
@@ -17922,23 +17930,23 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="28">
+    <row r="172" spans="1:12" ht="14">
       <c r="A172" s="15">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172" s="260">
         <f t="shared" si="6"/>
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="C172" s="261">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D172" s="251" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E172" s="262" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F172" s="263"/>
       <c r="G172" s="251"/>
@@ -17946,7 +17954,7 @@
         <v>2318</v>
       </c>
       <c r="I172" s="16" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="J172" s="16" t="s">
         <v>2322</v>
@@ -17961,30 +17969,28 @@
     <row r="173" spans="1:12" ht="28">
       <c r="A173" s="15">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" s="260">
         <f t="shared" si="6"/>
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="C173" s="261">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D173" s="251" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E173" s="262" t="s">
-        <v>405</v>
-      </c>
-      <c r="F173" s="263" t="s">
-        <v>365</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F173" s="263"/>
       <c r="G173" s="251"/>
       <c r="H173" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="J173" s="16" t="s">
         <v>2322</v>
@@ -17999,30 +18005,30 @@
     <row r="174" spans="1:12" ht="28">
       <c r="A174" s="15">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174" s="260">
         <f t="shared" si="6"/>
-        <v>1588</v>
+        <v>1560</v>
       </c>
       <c r="C174" s="261">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D174" s="251" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E174" s="262" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F174" s="263" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G174" s="251"/>
       <c r="H174" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="J174" s="16" t="s">
         <v>2322</v>
@@ -18034,33 +18040,33 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="14">
+    <row r="175" spans="1:12" ht="28">
       <c r="A175" s="15">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="260">
         <f t="shared" si="6"/>
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="C175" s="261">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D175" s="251" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E175" s="262" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F175" s="263" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G175" s="251"/>
       <c r="H175" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="J175" s="16" t="s">
         <v>2322</v>
@@ -18075,36 +18081,36 @@
     <row r="176" spans="1:12" ht="14">
       <c r="A176" s="15">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B176" s="260">
         <f t="shared" si="6"/>
-        <v>1625</v>
+        <v>1597</v>
       </c>
       <c r="C176" s="261">
         <v>28</v>
       </c>
       <c r="D176" s="251" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E176" s="262" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F176" s="263" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G176" s="251"/>
       <c r="H176" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="J176" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="L176" s="7" t="s">
         <v>2575</v>
@@ -18113,125 +18119,134 @@
     <row r="177" spans="1:12" ht="14">
       <c r="A177" s="15">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B177" s="260">
         <f t="shared" si="6"/>
-        <v>1653</v>
+        <v>1625</v>
       </c>
       <c r="C177" s="261">
         <v>28</v>
       </c>
       <c r="D177" s="251" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E177" s="262" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F177" s="263" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="G177" s="251"/>
       <c r="H177" s="16" t="s">
         <v>2318</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="J177" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="L177" s="7" t="s">
         <v>2575</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="70">
+    <row r="178" spans="1:12" ht="14">
       <c r="A178" s="15">
         <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="B178" s="260">
+        <f t="shared" si="6"/>
+        <v>1653</v>
+      </c>
+      <c r="C178" s="261">
+        <v>28</v>
+      </c>
+      <c r="D178" s="251" t="s">
+        <v>412</v>
+      </c>
+      <c r="E178" s="262" t="s">
+        <v>413</v>
+      </c>
+      <c r="F178" s="263" t="s">
+        <v>414</v>
+      </c>
+      <c r="G178" s="251"/>
+      <c r="H178" s="16" t="s">
+        <v>2318</v>
+      </c>
+      <c r="I178" s="16" t="s">
+        <v>2351</v>
+      </c>
+      <c r="J178" s="16" t="s">
+        <v>2322</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="70">
+      <c r="A179" s="15">
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="B178" s="264">
+      <c r="B179" s="264">
         <f t="shared" si="6"/>
         <v>1681</v>
       </c>
-      <c r="C178" s="265">
+      <c r="C179" s="265">
         <v>50</v>
       </c>
-      <c r="D178" s="257" t="s">
+      <c r="D179" s="257" t="s">
         <v>415</v>
       </c>
-      <c r="E178" s="266" t="s">
+      <c r="E179" s="266" t="s">
         <v>416</v>
       </c>
-      <c r="F178" s="248" t="s">
+      <c r="F179" s="248" t="s">
         <v>417</v>
       </c>
-      <c r="G178" s="300"/>
-      <c r="H178" s="16" t="s">
+      <c r="G179" s="300"/>
+      <c r="H179" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I178" s="16" t="s">
+      <c r="I179" s="16" t="s">
         <v>2569</v>
       </c>
-      <c r="J178" s="16" t="s">
+      <c r="J179" s="16" t="s">
         <v>2322</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L178" s="7" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="28">
-      <c r="A179" s="15">
-        <f t="shared" si="7"/>
-        <v>158</v>
-      </c>
-      <c r="B179" s="1">
-        <f t="shared" si="6"/>
-        <v>1731</v>
-      </c>
-      <c r="C179" s="17">
-        <v>2</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="E179" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F179" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="G179" s="2"/>
-      <c r="H179" s="16" t="s">
-        <v>2330</v>
       </c>
       <c r="K179" s="7" t="s">
         <v>2595</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>2575</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="28">
       <c r="A180" s="15">
         <f t="shared" si="7"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="6"/>
-        <v>1733</v>
-      </c>
-      <c r="C180" s="3">
-        <v>3</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>422</v>
+        <v>1731</v>
+      </c>
+      <c r="C180" s="17">
+        <v>2</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="F180" s="83" t="s">
         <v>420</v>
@@ -18244,85 +18259,87 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="92.25" customHeight="1">
+    <row r="181" spans="1:12" ht="28">
       <c r="A181" s="15">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="6"/>
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="C181" s="3">
         <v>3</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>2490</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="F181" s="83" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="16" t="s">
-        <v>2487</v>
-      </c>
-      <c r="I181" s="16" t="s">
-        <v>2541</v>
-      </c>
-      <c r="J181" s="16" t="s">
-        <v>2361</v>
-      </c>
-      <c r="K181" s="16" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="14">
+        <v>2330</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="92.25" customHeight="1">
       <c r="A182" s="15">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="6"/>
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C182" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>2491</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F182" s="83"/>
+        <v>2490</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F182" s="83" t="s">
+        <v>424</v>
+      </c>
       <c r="G182" s="2"/>
       <c r="H182" s="16" t="s">
-        <v>2330</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="28">
+        <v>2487</v>
+      </c>
+      <c r="I182" s="16" t="s">
+        <v>2541</v>
+      </c>
+      <c r="J182" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K182" s="16" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="14">
       <c r="A183" s="15">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="6"/>
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C183" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>426</v>
+        <v>2491</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F183" s="83"/>
       <c r="G183" s="2"/>
@@ -18333,23 +18350,23 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14">
+    <row r="184" spans="1:12" ht="28">
       <c r="A184" s="15">
         <f t="shared" si="7"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="6"/>
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F184" s="83"/>
       <c r="G184" s="2"/>
@@ -18363,20 +18380,20 @@
     <row r="185" spans="1:12" ht="14">
       <c r="A185" s="15">
         <f t="shared" si="7"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C185" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F185" s="83"/>
       <c r="G185" s="2"/>
@@ -18387,97 +18404,87 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="16">
+    <row r="186" spans="1:12" ht="14">
       <c r="A186" s="15">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="6"/>
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="C186" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F186" s="83"/>
       <c r="G186" s="2"/>
       <c r="H186" s="16" t="s">
         <v>2330</v>
       </c>
-      <c r="I186" s="295"/>
       <c r="K186" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="28">
+    <row r="187" spans="1:12" ht="16">
       <c r="A187" s="15">
         <f t="shared" si="7"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="6"/>
-        <v>1808</v>
+        <v>1758</v>
       </c>
       <c r="C187" s="3">
         <v>50</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="F187" s="83" t="s">
-        <v>436</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>2477</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="F187" s="83"/>
+      <c r="G187" s="2"/>
       <c r="H187" s="16" t="s">
-        <v>2318</v>
-      </c>
-      <c r="I187" s="16" t="s">
-        <v>2433</v>
-      </c>
-      <c r="J187" s="16" t="s">
-        <v>2322</v>
-      </c>
+        <v>2330</v>
+      </c>
+      <c r="I187" s="295"/>
       <c r="K187" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14">
+    <row r="188" spans="1:12" ht="28">
       <c r="A188" s="15">
         <f t="shared" si="7"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="6"/>
-        <v>1858</v>
+        <v>1808</v>
       </c>
       <c r="C188" s="3">
         <v>50</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>437</v>
+      <c r="D188" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F188" s="83" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>2414</v>
+        <v>2318</v>
       </c>
       <c r="I188" s="16" t="s">
         <v>2433</v>
@@ -18492,20 +18499,20 @@
     <row r="189" spans="1:12" ht="14">
       <c r="A189" s="15">
         <f t="shared" si="7"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="6"/>
-        <v>1908</v>
+        <v>1858</v>
       </c>
       <c r="C189" s="3">
         <v>50</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>439</v>
+      <c r="D189" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F189" s="83" t="s">
         <v>389</v>
@@ -18529,20 +18536,20 @@
     <row r="190" spans="1:12" ht="14">
       <c r="A190" s="15">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="6"/>
-        <v>1958</v>
+        <v>1908</v>
       </c>
       <c r="C190" s="3">
         <v>50</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F190" s="83" t="s">
         <v>389</v>
@@ -18551,7 +18558,7 @@
         <v>2477</v>
       </c>
       <c r="H190" s="16" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="I190" s="16" t="s">
         <v>2433</v>
@@ -18566,20 +18573,20 @@
     <row r="191" spans="1:12" ht="14">
       <c r="A191" s="15">
         <f t="shared" si="7"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="6"/>
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="C191" s="3">
         <v>50</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F191" s="83" t="s">
         <v>389</v>
@@ -18603,20 +18610,20 @@
     <row r="192" spans="1:12" ht="14">
       <c r="A192" s="15">
         <f t="shared" si="7"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="6"/>
-        <v>2058</v>
+        <v>2008</v>
       </c>
       <c r="C192" s="3">
         <v>50</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F192" s="83" t="s">
         <v>389</v>
@@ -18628,107 +18635,106 @@
         <v>2417</v>
       </c>
       <c r="I192" s="16" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>2363</v>
+        <v>2322</v>
       </c>
       <c r="K192" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="28">
+    <row r="193" spans="1:12" ht="14">
       <c r="A193" s="15">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="6"/>
-        <v>2108</v>
+        <v>2058</v>
       </c>
       <c r="C193" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F193" s="83" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>2437</v>
+        <v>2417</v>
       </c>
       <c r="I193" s="16" t="s">
-        <v>2373</v>
+        <v>2431</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="14">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="28">
       <c r="A194" s="15">
         <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-      <c r="B194" s="260">
+        <v>172</v>
+      </c>
+      <c r="B194" s="1">
         <f t="shared" si="6"/>
-        <v>2109</v>
-      </c>
-      <c r="C194" s="261">
-        <v>50</v>
-      </c>
-      <c r="D194" s="251" t="s">
-        <v>450</v>
-      </c>
-      <c r="E194" s="252" t="s">
-        <v>451</v>
-      </c>
-      <c r="F194" s="263" t="s">
-        <v>452</v>
-      </c>
-      <c r="G194" s="251"/>
+        <v>2108</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F194" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>2477</v>
+      </c>
       <c r="H194" s="16" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="I194" s="16" t="s">
-        <v>2568</v>
+        <v>2373</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>2322</v>
+        <v>2361</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L194" s="7" t="s">
-        <v>2575</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="14">
       <c r="A195" s="15">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B195" s="260">
         <f t="shared" si="6"/>
-        <v>2159</v>
+        <v>2109</v>
       </c>
       <c r="C195" s="261">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D195" s="251" t="s">
-        <v>453</v>
-      </c>
-      <c r="E195" s="262" t="s">
-        <v>454</v>
+        <v>450</v>
+      </c>
+      <c r="E195" s="252" t="s">
+        <v>451</v>
       </c>
       <c r="F195" s="263" t="s">
         <v>452</v>
@@ -18738,7 +18744,7 @@
         <v>2438</v>
       </c>
       <c r="I195" s="16" t="s">
-        <v>2381</v>
+        <v>2568</v>
       </c>
       <c r="J195" s="16" t="s">
         <v>2322</v>
@@ -18750,138 +18756,139 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="56">
+    <row r="196" spans="1:12" ht="14">
       <c r="A196" s="15">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B196" s="260">
         <f t="shared" si="6"/>
-        <v>2409</v>
+        <v>2159</v>
       </c>
       <c r="C196" s="261">
-        <v>30</v>
-      </c>
-      <c r="D196" s="290" t="s">
-        <v>455</v>
+        <v>250</v>
+      </c>
+      <c r="D196" s="251" t="s">
+        <v>453</v>
       </c>
       <c r="E196" s="262" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F196" s="263" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G196" s="251"/>
       <c r="H196" s="16" t="s">
         <v>2438</v>
       </c>
       <c r="I196" s="16" t="s">
-        <v>2577</v>
+        <v>2381</v>
       </c>
       <c r="J196" s="16" t="s">
-        <v>2361</v>
+        <v>2322</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>2425</v>
+        <v>2595</v>
       </c>
       <c r="L196" s="7" t="s">
         <v>2575</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14">
+    <row r="197" spans="1:12" ht="56">
       <c r="A197" s="15">
         <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="B197" s="260">
+        <f t="shared" si="6"/>
+        <v>2409</v>
+      </c>
+      <c r="C197" s="261">
+        <v>30</v>
+      </c>
+      <c r="D197" s="290" t="s">
+        <v>455</v>
+      </c>
+      <c r="E197" s="262" t="s">
+        <v>456</v>
+      </c>
+      <c r="F197" s="263" t="s">
+        <v>457</v>
+      </c>
+      <c r="G197" s="251"/>
+      <c r="H197" s="16" t="s">
+        <v>2438</v>
+      </c>
+      <c r="I197" s="16" t="s">
+        <v>2577</v>
+      </c>
+      <c r="J197" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="14">
+      <c r="A198" s="15">
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B198" s="1">
         <f t="shared" si="6"/>
         <v>2439</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C198" s="3">
         <v>28</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E198" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="F197" s="83" t="s">
+      <c r="F198" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="G198" s="2" t="s">
         <v>2477</v>
       </c>
-      <c r="H197" s="16" t="s">
+      <c r="H198" s="16" t="s">
         <v>2449</v>
       </c>
-      <c r="I197" s="16" t="s">
+      <c r="I198" s="16" t="s">
         <v>2348</v>
       </c>
-      <c r="J197" s="16" t="s">
+      <c r="J198" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K197" s="7" t="s">
+      <c r="K198" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="28">
-      <c r="A198" s="15">
+    <row r="199" spans="1:12" ht="28">
+      <c r="A199" s="15">
         <f t="shared" si="7"/>
         <v>177</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B199" s="1">
         <f t="shared" si="6"/>
         <v>2467</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C199" s="3">
         <v>3</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E198" s="9" t="s">
+      <c r="E199" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F198" s="83" t="s">
+      <c r="F199" s="83" t="s">
         <v>463</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>2477</v>
-      </c>
-      <c r="H198" s="16" t="s">
-        <v>2449</v>
-      </c>
-      <c r="I198" s="16" t="s">
-        <v>2691</v>
-      </c>
-      <c r="J198" s="16" t="s">
-        <v>2320</v>
-      </c>
-      <c r="K198" s="16" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="14">
-      <c r="A199" s="15">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-      <c r="B199" s="1">
-        <f t="shared" si="6"/>
-        <v>2470</v>
-      </c>
-      <c r="C199" s="3">
-        <v>28</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="F199" s="83" t="s">
-        <v>466</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>2477</v>
@@ -18890,35 +18897,35 @@
         <v>2449</v>
       </c>
       <c r="I199" s="16" t="s">
-        <v>2343</v>
+        <v>2691</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="K199" s="7" t="s">
-        <v>2595</v>
+        <v>2320</v>
+      </c>
+      <c r="K199" s="16" t="s">
+        <v>2455</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="14">
       <c r="A200" s="15">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="6"/>
-        <v>2498</v>
+        <v>2470</v>
       </c>
       <c r="C200" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F200" s="83" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>2477</v>
@@ -18927,35 +18934,35 @@
         <v>2449</v>
       </c>
       <c r="I200" s="16" t="s">
-        <v>2429</v>
+        <v>2343</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="358">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="14">
       <c r="A201" s="15">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="6"/>
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="C201" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="F201" s="47" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="F201" s="83" t="s">
+        <v>469</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>2477</v>
@@ -18964,35 +18971,35 @@
         <v>2449</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>2346</v>
+        <v>2429</v>
       </c>
       <c r="J201" s="16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="42">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="358">
       <c r="A202" s="15">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="6"/>
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="C202" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="F202" s="83" t="s">
-        <v>475</v>
+        <v>471</v>
+      </c>
+      <c r="F202" s="47" t="s">
+        <v>472</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>2477</v>
@@ -19001,35 +19008,35 @@
         <v>2449</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>2366</v>
+        <v>2346</v>
       </c>
       <c r="J202" s="16" t="s">
-        <v>2367</v>
+        <v>2322</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>2595</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="42">
       <c r="A203" s="15">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B203" s="1">
-        <f>B202+C202</f>
-        <v>2522</v>
+        <f t="shared" si="6"/>
+        <v>2505</v>
       </c>
       <c r="C203" s="3">
         <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F203" s="83" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>2477</v>
@@ -19038,7 +19045,7 @@
         <v>2449</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="J203" s="16" t="s">
         <v>2367</v>
@@ -19047,136 +19054,135 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="28">
+    <row r="204" spans="1:12" ht="42">
       <c r="A204" s="15">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B204" s="1">
         <f>B203+C203</f>
-        <v>2539</v>
+        <v>2522</v>
       </c>
       <c r="C204" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="F204" s="87"/>
-      <c r="G204" s="301"/>
-      <c r="H204" s="2" t="s">
-        <v>2330</v>
+        <v>477</v>
+      </c>
+      <c r="F204" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H204" s="16" t="s">
+        <v>2449</v>
+      </c>
+      <c r="I204" s="16" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J204" s="16" t="s">
+        <v>2367</v>
       </c>
       <c r="K204" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="56">
+    <row r="205" spans="1:12" ht="28">
       <c r="A205" s="15">
         <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="B205" s="1">
+        <f>B204+C204</f>
+        <v>2539</v>
+      </c>
+      <c r="C205" s="3">
+        <v>2</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F205" s="87"/>
+      <c r="G205" s="301"/>
+      <c r="H205" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="56">
+      <c r="A206" s="15">
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="B205" s="260">
+      <c r="B206" s="260">
         <f t="shared" si="6"/>
         <v>2541</v>
       </c>
-      <c r="C205" s="261">
+      <c r="C206" s="261">
         <v>1</v>
       </c>
-      <c r="D205" s="251" t="s">
+      <c r="D206" s="251" t="s">
         <v>2640</v>
       </c>
-      <c r="E205" s="262" t="s">
+      <c r="E206" s="262" t="s">
         <v>2669</v>
       </c>
-      <c r="F205" s="263" t="s">
+      <c r="F206" s="263" t="s">
         <v>2668</v>
       </c>
-      <c r="G205" s="251"/>
-      <c r="H205" s="16" t="s">
+      <c r="G206" s="251"/>
+      <c r="H206" s="16" t="s">
         <v>2391</v>
       </c>
-      <c r="I205" s="7" t="s">
+      <c r="I206" s="7" t="s">
         <v>2589</v>
       </c>
-      <c r="J205" s="7" t="s">
+      <c r="J206" s="7" t="s">
         <v>2361</v>
       </c>
-      <c r="K205" s="7" t="s">
+      <c r="K206" s="7" t="s">
         <v>2590</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" s="15">
-        <f t="shared" si="7"/>
-        <v>185</v>
-      </c>
-      <c r="B206" s="261">
-        <f>B205+C205</f>
-        <v>2542</v>
-      </c>
-      <c r="C206" s="249">
-        <v>120</v>
-      </c>
-      <c r="D206" s="289" t="s">
-        <v>483</v>
-      </c>
-      <c r="E206" s="252" t="s">
-        <v>484</v>
-      </c>
-      <c r="F206" s="291" t="s">
-        <v>485</v>
-      </c>
-      <c r="G206" s="289"/>
-      <c r="H206" s="16" t="s">
-        <v>2378</v>
-      </c>
-      <c r="I206" s="16" t="s">
-        <v>2608</v>
-      </c>
-      <c r="J206" s="16" t="s">
-        <v>2380</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L206" s="7" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="15">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B207" s="261">
         <f>B206+C206</f>
-        <v>2662</v>
+        <v>2542</v>
       </c>
       <c r="C207" s="249">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D207" s="289" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E207" s="252" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F207" s="291" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G207" s="289"/>
       <c r="H207" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I207" s="7" t="s">
-        <v>2609</v>
+      <c r="I207" s="16" t="s">
+        <v>2608</v>
       </c>
       <c r="J207" s="16" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="K207" s="7" t="s">
         <v>2595</v>
@@ -19188,33 +19194,33 @@
     <row r="208" spans="1:12">
       <c r="A208" s="15">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B208" s="261">
-        <f t="shared" ref="B208:B214" si="9">B207+C207</f>
-        <v>2682</v>
+        <f>B207+C207</f>
+        <v>2662</v>
       </c>
       <c r="C208" s="249">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D208" s="289" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E208" s="252" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F208" s="291" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G208" s="289"/>
       <c r="H208" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I208" s="16" t="s">
-        <v>2615</v>
+      <c r="I208" s="7" t="s">
+        <v>2609</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="K208" s="7" t="s">
         <v>2595</v>
@@ -19226,33 +19232,33 @@
     <row r="209" spans="1:12">
       <c r="A209" s="15">
         <f t="shared" si="7"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B209" s="261">
-        <f t="shared" si="9"/>
-        <v>2802</v>
+        <f t="shared" ref="B209:B215" si="9">B208+C208</f>
+        <v>2682</v>
       </c>
       <c r="C209" s="249">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D209" s="289" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E209" s="252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F209" s="291" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G209" s="289"/>
       <c r="H209" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I209" s="7" t="s">
-        <v>2614</v>
+      <c r="I209" s="16" t="s">
+        <v>2615</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>2595</v>
@@ -19264,33 +19270,33 @@
     <row r="210" spans="1:12">
       <c r="A210" s="15">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B210" s="261">
         <f t="shared" si="9"/>
-        <v>2822</v>
+        <v>2802</v>
       </c>
       <c r="C210" s="249">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D210" s="289" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E210" s="252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F210" s="291" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G210" s="289"/>
       <c r="H210" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I210" s="16" t="s">
-        <v>2613</v>
+      <c r="I210" s="7" t="s">
+        <v>2614</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="K210" s="7" t="s">
         <v>2595</v>
@@ -19302,33 +19308,33 @@
     <row r="211" spans="1:12">
       <c r="A211" s="15">
         <f t="shared" si="7"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B211" s="261">
         <f t="shared" si="9"/>
-        <v>2942</v>
+        <v>2822</v>
       </c>
       <c r="C211" s="249">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D211" s="289" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E211" s="252" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F211" s="291" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G211" s="289"/>
       <c r="H211" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I211" s="7" t="s">
-        <v>2612</v>
+      <c r="I211" s="16" t="s">
+        <v>2613</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="K211" s="7" t="s">
         <v>2595</v>
@@ -19340,33 +19346,33 @@
     <row r="212" spans="1:12">
       <c r="A212" s="15">
         <f t="shared" si="7"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B212" s="261">
         <f t="shared" si="9"/>
-        <v>2962</v>
+        <v>2942</v>
       </c>
       <c r="C212" s="249">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D212" s="289" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E212" s="252" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F212" s="291" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G212" s="289"/>
       <c r="H212" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I212" s="16" t="s">
-        <v>2611</v>
+      <c r="I212" s="7" t="s">
+        <v>2612</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="K212" s="7" t="s">
         <v>2595</v>
@@ -19378,33 +19384,33 @@
     <row r="213" spans="1:12">
       <c r="A213" s="15">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B213" s="261">
         <f t="shared" si="9"/>
-        <v>3082</v>
+        <v>2962</v>
       </c>
       <c r="C213" s="249">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D213" s="289" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E213" s="252" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F213" s="291" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G213" s="289"/>
       <c r="H213" s="16" t="s">
         <v>2378</v>
       </c>
-      <c r="I213" s="7" t="s">
-        <v>2610</v>
+      <c r="I213" s="16" t="s">
+        <v>2611</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>2595</v>
@@ -19416,33 +19422,33 @@
     <row r="214" spans="1:12">
       <c r="A214" s="15">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B214" s="261">
         <f t="shared" si="9"/>
-        <v>3102</v>
+        <v>3082</v>
       </c>
       <c r="C214" s="249">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D214" s="289" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E214" s="252" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F214" s="291" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G214" s="289"/>
       <c r="H214" s="16" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>2381</v>
+        <v>2610</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="K214" s="7" t="s">
         <v>2595</v>
@@ -19451,136 +19457,140 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="14">
+    <row r="215" spans="1:12">
       <c r="A215" s="15">
-        <f t="shared" ref="A215:A278" si="10">A214+1</f>
-        <v>194</v>
-      </c>
-      <c r="B215" s="3">
-        <v>3342</v>
-      </c>
-      <c r="C215" s="18">
-        <v>50</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="F215" s="88"/>
-      <c r="G215" s="2" t="s">
-        <v>2477</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="B215" s="261">
+        <f t="shared" si="9"/>
+        <v>3102</v>
+      </c>
+      <c r="C215" s="249">
+        <v>240</v>
+      </c>
+      <c r="D215" s="289" t="s">
+        <v>507</v>
+      </c>
+      <c r="E215" s="252" t="s">
+        <v>508</v>
+      </c>
+      <c r="F215" s="291" t="s">
+        <v>509</v>
+      </c>
+      <c r="G215" s="289"/>
       <c r="H215" s="16" t="s">
-        <v>2318</v>
-      </c>
-      <c r="I215" s="16" t="s">
-        <v>2436</v>
+        <v>2379</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>2381</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>2322</v>
+        <v>2383</v>
       </c>
       <c r="K215" s="7" t="s">
         <v>2595</v>
       </c>
+      <c r="L215" s="7" t="s">
+        <v>2575</v>
+      </c>
     </row>
     <row r="216" spans="1:12" ht="14">
       <c r="A216" s="15">
-        <f t="shared" si="10"/>
-        <v>195</v>
+        <f t="shared" ref="A216:A279" si="10">A215+1</f>
+        <v>194</v>
       </c>
       <c r="B216" s="3">
-        <v>3392</v>
+        <v>3342</v>
       </c>
       <c r="C216" s="18">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="F216" s="83" t="s">
-        <v>120</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="F216" s="88"/>
       <c r="G216" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H216" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I216" s="7" t="s">
-        <v>2319</v>
+      <c r="I216" s="16" t="s">
+        <v>2436</v>
       </c>
       <c r="J216" s="16" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>2454</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="14">
       <c r="A217" s="15">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B217" s="3">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="C217" s="18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="F217" s="88"/>
+        <v>513</v>
+      </c>
+      <c r="F217" s="83" t="s">
+        <v>120</v>
+      </c>
       <c r="G217" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H217" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="I217" s="16" t="s">
-        <v>2321</v>
+      <c r="I217" s="7" t="s">
+        <v>2319</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>2595</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="14">
       <c r="A218" s="15">
         <f t="shared" si="10"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B218" s="3">
-        <v>3425</v>
+        <v>3397</v>
       </c>
       <c r="C218" s="18">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F218" s="88"/>
       <c r="G218" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H218" s="16" t="s">
-        <v>2418</v>
+        <v>2318</v>
       </c>
       <c r="I218" s="16" t="s">
-        <v>2433</v>
+        <v>2321</v>
       </c>
       <c r="J218" s="16" t="s">
         <v>2322</v>
@@ -19592,19 +19602,19 @@
     <row r="219" spans="1:12" ht="14">
       <c r="A219" s="15">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B219" s="3">
-        <v>3475</v>
+        <v>3425</v>
       </c>
       <c r="C219" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F219" s="88"/>
       <c r="G219" s="2" t="s">
@@ -19614,7 +19624,7 @@
         <v>2418</v>
       </c>
       <c r="I219" s="16" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="J219" s="16" t="s">
         <v>2322</v>
@@ -19626,26 +19636,26 @@
     <row r="220" spans="1:12" ht="14">
       <c r="A220" s="15">
         <f t="shared" si="10"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B220" s="3">
-        <v>3485</v>
+        <v>3475</v>
       </c>
       <c r="C220" s="18">
         <v>10</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F220" s="88"/>
       <c r="G220" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H220" s="16" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="I220" s="16" t="s">
         <v>2435</v>
@@ -19660,26 +19670,26 @@
     <row r="221" spans="1:12" ht="14">
       <c r="A221" s="15">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B221" s="3">
-        <v>3495</v>
+        <v>3485</v>
       </c>
       <c r="C221" s="18">
         <v>10</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F221" s="88"/>
       <c r="G221" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="I221" s="16" t="s">
         <v>2435</v>
@@ -19694,92 +19704,90 @@
     <row r="222" spans="1:12" ht="14">
       <c r="A222" s="15">
         <f t="shared" si="10"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B222" s="3">
-        <v>3505</v>
+        <v>3495</v>
       </c>
       <c r="C222" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F222" s="88"/>
       <c r="G222" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H222" s="16" t="s">
-        <v>2318</v>
+        <v>2417</v>
       </c>
       <c r="I222" s="16" t="s">
-        <v>2333</v>
-      </c>
-      <c r="J222" s="7" t="s">
-        <v>2334</v>
+        <v>2435</v>
+      </c>
+      <c r="J222" s="16" t="s">
+        <v>2322</v>
       </c>
       <c r="K222" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="358">
+    <row r="223" spans="1:12" ht="14">
       <c r="A223" s="15">
         <f t="shared" si="10"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B223" s="3">
-        <v>3535</v>
+        <v>3505</v>
       </c>
       <c r="C223" s="18">
-        <v>2</v>
-      </c>
-      <c r="D223" s="114" t="s">
-        <v>526</v>
+        <v>30</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="F223" s="47" t="s">
-        <v>528</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="F223" s="88"/>
       <c r="G223" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H223" s="16" t="s">
-        <v>2428</v>
+        <v>2318</v>
       </c>
       <c r="I223" s="16" t="s">
-        <v>2346</v>
-      </c>
-      <c r="J223" s="16" t="s">
-        <v>2322</v>
+        <v>2333</v>
+      </c>
+      <c r="J223" s="7" t="s">
+        <v>2334</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="14">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="358">
       <c r="A224" s="15">
         <f t="shared" si="10"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B224" s="3">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C224" s="18">
-        <v>28</v>
-      </c>
-      <c r="D224" s="19" t="s">
-        <v>529</v>
+        <v>2</v>
+      </c>
+      <c r="D224" s="114" t="s">
+        <v>526</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="F224" s="100" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="F224" s="47" t="s">
+        <v>528</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>2477</v>
@@ -19788,34 +19796,34 @@
         <v>2428</v>
       </c>
       <c r="I224" s="16" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="J224" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>2591</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14">
       <c r="A225" s="15">
         <f t="shared" si="10"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B225" s="3">
-        <v>3565</v>
+        <v>3537</v>
       </c>
       <c r="C225" s="18">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="F225" s="83" t="s">
-        <v>120</v>
+        <v>530</v>
+      </c>
+      <c r="F225" s="100" t="s">
+        <v>531</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>2477</v>
@@ -19823,34 +19831,36 @@
       <c r="H225" s="16" t="s">
         <v>2428</v>
       </c>
-      <c r="I225" s="7" t="s">
-        <v>2429</v>
+      <c r="I225" s="16" t="s">
+        <v>2352</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>2454</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14">
       <c r="A226" s="15">
         <f t="shared" si="10"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B226" s="3">
-        <v>3570</v>
+        <v>3565</v>
       </c>
       <c r="C226" s="18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="F226" s="88"/>
+        <v>533</v>
+      </c>
+      <c r="F226" s="83" t="s">
+        <v>120</v>
+      </c>
       <c r="G226" s="2" t="s">
         <v>2477</v>
       </c>
@@ -19858,43 +19868,41 @@
         <v>2428</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>2343</v>
+        <v>2429</v>
       </c>
       <c r="J226" s="16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>2595</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14">
       <c r="A227" s="15">
         <f t="shared" si="10"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="3">
-        <v>3598</v>
+        <v>3570</v>
       </c>
       <c r="C227" s="18">
-        <v>100</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>536</v>
+        <v>28</v>
+      </c>
+      <c r="D227" s="19" t="s">
+        <v>534</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="F227" s="83" t="s">
-        <v>538</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="F227" s="88"/>
       <c r="G227" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H227" s="16" t="s">
-        <v>2445</v>
-      </c>
-      <c r="I227" s="16" t="s">
-        <v>2430</v>
+        <v>2428</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>2343</v>
       </c>
       <c r="J227" s="16" t="s">
         <v>2322</v>
@@ -19906,22 +19914,23 @@
     <row r="228" spans="1:12" ht="14">
       <c r="A228" s="15">
         <f t="shared" si="10"/>
-        <v>207</v>
-      </c>
-      <c r="B228" s="1">
-        <f t="shared" ref="B228:B233" si="11">B227+C227</f>
-        <v>3698</v>
-      </c>
-      <c r="C228" s="3">
-        <v>10</v>
+        <v>206</v>
+      </c>
+      <c r="B228" s="3">
+        <v>3598</v>
+      </c>
+      <c r="C228" s="18">
+        <v>100</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="F228" s="83"/>
+        <v>536</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="F228" s="83" t="s">
+        <v>538</v>
+      </c>
       <c r="G228" s="2" t="s">
         <v>2477</v>
       </c>
@@ -19929,7 +19938,7 @@
         <v>2445</v>
       </c>
       <c r="I228" s="16" t="s">
-        <v>2345</v>
+        <v>2430</v>
       </c>
       <c r="J228" s="16" t="s">
         <v>2322</v>
@@ -19941,20 +19950,20 @@
     <row r="229" spans="1:12" ht="14">
       <c r="A229" s="15">
         <f t="shared" si="10"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B229" s="1">
-        <f t="shared" si="11"/>
-        <v>3708</v>
+        <f t="shared" ref="B229:B234" si="11">B228+C228</f>
+        <v>3698</v>
       </c>
       <c r="C229" s="3">
         <v>10</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F229" s="83"/>
       <c r="G229" s="2" t="s">
@@ -19963,8 +19972,8 @@
       <c r="H229" s="16" t="s">
         <v>2445</v>
       </c>
-      <c r="I229" s="7" t="s">
-        <v>2339</v>
+      <c r="I229" s="16" t="s">
+        <v>2345</v>
       </c>
       <c r="J229" s="16" t="s">
         <v>2322</v>
@@ -19976,20 +19985,20 @@
     <row r="230" spans="1:12" ht="14">
       <c r="A230" s="15">
         <f t="shared" si="10"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="11"/>
-        <v>3718</v>
+        <v>3708</v>
       </c>
       <c r="C230" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F230" s="83"/>
       <c r="G230" s="2" t="s">
@@ -19998,8 +20007,8 @@
       <c r="H230" s="16" t="s">
         <v>2445</v>
       </c>
-      <c r="I230" s="16" t="s">
-        <v>2340</v>
+      <c r="I230" s="7" t="s">
+        <v>2339</v>
       </c>
       <c r="J230" s="16" t="s">
         <v>2322</v>
@@ -20011,20 +20020,20 @@
     <row r="231" spans="1:12" ht="14">
       <c r="A231" s="15">
         <f t="shared" si="10"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="11"/>
-        <v>3746</v>
+        <v>3718</v>
       </c>
       <c r="C231" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F231" s="83"/>
       <c r="G231" s="2" t="s">
@@ -20034,7 +20043,7 @@
         <v>2445</v>
       </c>
       <c r="I231" s="16" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="J231" s="16" t="s">
         <v>2322</v>
@@ -20046,20 +20055,20 @@
     <row r="232" spans="1:12" ht="14">
       <c r="A232" s="15">
         <f t="shared" si="10"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="11"/>
-        <v>3756</v>
+        <v>3746</v>
       </c>
       <c r="C232" s="3">
         <v>10</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F232" s="83"/>
       <c r="G232" s="2" t="s">
@@ -20069,7 +20078,7 @@
         <v>2445</v>
       </c>
       <c r="I232" s="16" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="J232" s="16" t="s">
         <v>2322</v>
@@ -20078,23 +20087,23 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="24" customHeight="1">
+    <row r="233" spans="1:12" ht="14">
       <c r="A233" s="15">
         <f t="shared" si="10"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="11"/>
-        <v>3766</v>
+        <v>3756</v>
       </c>
       <c r="C233" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F233" s="83"/>
       <c r="G233" s="2" t="s">
@@ -20104,7 +20113,7 @@
         <v>2445</v>
       </c>
       <c r="I233" s="16" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="J233" s="16" t="s">
         <v>2322</v>
@@ -20113,26 +20122,25 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="56">
+    <row r="234" spans="1:12" ht="24" customHeight="1">
       <c r="A234" s="15">
         <f t="shared" si="10"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B234" s="1">
-        <v>3773</v>
+        <f t="shared" si="11"/>
+        <v>3766</v>
       </c>
       <c r="C234" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F234" s="224" t="s">
-        <v>553</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="F234" s="83"/>
       <c r="G234" s="2" t="s">
         <v>2477</v>
       </c>
@@ -20140,35 +20148,34 @@
         <v>2445</v>
       </c>
       <c r="I234" s="16" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="J234" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K234" s="16" t="s">
-        <v>2386</v>
-      </c>
-      <c r="L234" s="16"/>
-    </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1">
+      <c r="K234" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="56">
       <c r="A235" s="15">
         <f t="shared" si="10"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B235" s="1">
-        <v>3823</v>
+        <v>3773</v>
       </c>
       <c r="C235" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="F235" s="83" t="s">
-        <v>365</v>
+        <v>552</v>
+      </c>
+      <c r="F235" s="224" t="s">
+        <v>553</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>2477</v>
@@ -20177,35 +20184,35 @@
         <v>2445</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>2343</v>
+        <v>2353</v>
       </c>
       <c r="J235" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="L235" s="16"/>
     </row>
-    <row r="236" spans="1:12" ht="358">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1">
       <c r="A236" s="15">
         <f t="shared" si="10"/>
-        <v>215</v>
-      </c>
-      <c r="B236" s="3">
-        <v>3851</v>
-      </c>
-      <c r="C236" s="18">
-        <v>2</v>
-      </c>
-      <c r="D236" s="114" t="s">
-        <v>556</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="F236" s="47" t="s">
-        <v>558</v>
+        <v>214</v>
+      </c>
+      <c r="B236" s="1">
+        <v>3823</v>
+      </c>
+      <c r="C236" s="3">
+        <v>28</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F236" s="83" t="s">
+        <v>365</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>2477</v>
@@ -20214,34 +20221,35 @@
         <v>2445</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="J236" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="28">
+        <v>2387</v>
+      </c>
+      <c r="L236" s="16"/>
+    </row>
+    <row r="237" spans="1:12" ht="358">
       <c r="A237" s="15">
         <f t="shared" si="10"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B237" s="3">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="C237" s="18">
-        <v>28</v>
-      </c>
-      <c r="D237" s="115" t="s">
-        <v>559</v>
+        <v>2</v>
+      </c>
+      <c r="D237" s="114" t="s">
+        <v>556</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F237" s="100" t="s">
-        <v>531</v>
+        <v>557</v>
+      </c>
+      <c r="F237" s="47" t="s">
+        <v>558</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>2477</v>
@@ -20250,35 +20258,34 @@
         <v>2445</v>
       </c>
       <c r="I237" s="16" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="J237" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L237" s="16"/>
+        <v>2325</v>
+      </c>
     </row>
     <row r="238" spans="1:12" ht="28">
       <c r="A238" s="15">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B238" s="3">
-        <v>3881</v>
+        <v>3853</v>
       </c>
       <c r="C238" s="18">
-        <v>9</v>
-      </c>
-      <c r="D238" s="19" t="s">
-        <v>561</v>
+        <v>28</v>
+      </c>
+      <c r="D238" s="115" t="s">
+        <v>559</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="F238" s="83" t="s">
-        <v>371</v>
+        <v>560</v>
+      </c>
+      <c r="F238" s="100" t="s">
+        <v>531</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>2477</v>
@@ -20287,68 +20294,71 @@
         <v>2445</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K238" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="14">
+      <c r="K238" s="16" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L238" s="16"/>
+    </row>
+    <row r="239" spans="1:12" ht="28">
       <c r="A239" s="15">
         <f t="shared" si="10"/>
-        <v>218</v>
-      </c>
-      <c r="B239" s="18">
-        <v>3890</v>
-      </c>
-      <c r="C239" s="17">
-        <v>8</v>
-      </c>
-      <c r="D239" s="16" t="s">
-        <v>563</v>
+        <v>217</v>
+      </c>
+      <c r="B239" s="3">
+        <v>3881</v>
+      </c>
+      <c r="C239" s="18">
+        <v>9</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F239" s="83" t="s">
-        <v>565</v>
+        <v>371</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H239" s="16" t="s">
-        <v>2407</v>
+        <v>2445</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2677</v>
+        <v>2344</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>2332</v>
-      </c>
-      <c r="K239" s="16"/>
+        <v>2322</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>2595</v>
+      </c>
     </row>
     <row r="240" spans="1:12" ht="14">
       <c r="A240" s="15">
         <f t="shared" si="10"/>
-        <v>219</v>
-      </c>
-      <c r="B240" s="3">
-        <v>3898</v>
-      </c>
-      <c r="C240" s="18">
-        <v>4</v>
-      </c>
-      <c r="D240" s="19" t="s">
-        <v>566</v>
+        <v>218</v>
+      </c>
+      <c r="B240" s="18">
+        <v>3890</v>
+      </c>
+      <c r="C240" s="17">
+        <v>8</v>
+      </c>
+      <c r="D240" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="F240" s="88" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="F240" s="83" t="s">
+        <v>565</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>2477</v>
@@ -20357,67 +20367,65 @@
         <v>2407</v>
       </c>
       <c r="I240" s="16" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="J240" s="16" t="s">
-        <v>2679</v>
+        <v>2332</v>
       </c>
       <c r="K240" s="16"/>
     </row>
     <row r="241" spans="1:11" ht="14">
       <c r="A241" s="15">
         <f t="shared" si="10"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B241" s="3">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="C241" s="18">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="F241" s="83" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="F241" s="88" t="s">
+        <v>568</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H241" s="16" t="s">
-        <v>2385</v>
+        <v>2407</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>2433</v>
+        <v>2678</v>
       </c>
       <c r="J241" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="K241" s="7" t="s">
-        <v>2595</v>
-      </c>
+        <v>2679</v>
+      </c>
+      <c r="K241" s="16"/>
     </row>
     <row r="242" spans="1:11" ht="14">
       <c r="A242" s="15">
         <f t="shared" si="10"/>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B242" s="3">
-        <v>3952</v>
+        <v>3902</v>
       </c>
       <c r="C242" s="18">
         <v>50</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="F242" s="88" t="s">
+        <v>570</v>
+      </c>
+      <c r="F242" s="83" t="s">
         <v>571</v>
       </c>
       <c r="G242" s="2" t="s">
@@ -20439,21 +20447,21 @@
     <row r="243" spans="1:11" ht="14">
       <c r="A243" s="15">
         <f t="shared" si="10"/>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B243" s="3">
-        <v>4002</v>
+        <v>3952</v>
       </c>
       <c r="C243" s="18">
         <v>50</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="F243" s="83" t="s">
+        <v>573</v>
+      </c>
+      <c r="F243" s="88" t="s">
         <v>571</v>
       </c>
       <c r="G243" s="2" t="s">
@@ -20463,7 +20471,7 @@
         <v>2385</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="J243" s="16" t="s">
         <v>2322</v>
@@ -20475,21 +20483,21 @@
     <row r="244" spans="1:11" ht="14">
       <c r="A244" s="15">
         <f t="shared" si="10"/>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B244" s="3">
-        <v>4052</v>
+        <v>4002</v>
       </c>
       <c r="C244" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="F244" s="88" t="s">
+        <v>575</v>
+      </c>
+      <c r="F244" s="83" t="s">
         <v>571</v>
       </c>
       <c r="G244" s="2" t="s">
@@ -20499,7 +20507,7 @@
         <v>2385</v>
       </c>
       <c r="I244" s="16" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="J244" s="16" t="s">
         <v>2322</v>
@@ -20511,22 +20519,23 @@
     <row r="245" spans="1:11" ht="14">
       <c r="A245" s="15">
         <f t="shared" si="10"/>
-        <v>224</v>
-      </c>
-      <c r="B245" s="1">
-        <f t="shared" ref="B245:B250" si="12">B244+C244</f>
-        <v>4062</v>
-      </c>
-      <c r="C245" s="3">
+        <v>223</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4052</v>
+      </c>
+      <c r="C245" s="18">
         <v>10</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="F245" s="83"/>
+      <c r="D245" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="F245" s="88" t="s">
+        <v>571</v>
+      </c>
       <c r="G245" s="2" t="s">
         <v>2477</v>
       </c>
@@ -20534,7 +20543,7 @@
         <v>2385</v>
       </c>
       <c r="I245" s="16" t="s">
-        <v>2345</v>
+        <v>2435</v>
       </c>
       <c r="J245" s="16" t="s">
         <v>2322</v>
@@ -20546,20 +20555,20 @@
     <row r="246" spans="1:11" ht="14">
       <c r="A246" s="15">
         <f t="shared" si="10"/>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="1">
-        <f t="shared" si="12"/>
-        <v>4072</v>
+        <f t="shared" ref="B246:B251" si="12">B245+C245</f>
+        <v>4062</v>
       </c>
       <c r="C246" s="3">
         <v>10</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F246" s="83"/>
       <c r="G246" s="2" t="s">
@@ -20568,8 +20577,8 @@
       <c r="H246" s="16" t="s">
         <v>2385</v>
       </c>
-      <c r="I246" s="7" t="s">
-        <v>2339</v>
+      <c r="I246" s="16" t="s">
+        <v>2345</v>
       </c>
       <c r="J246" s="16" t="s">
         <v>2322</v>
@@ -20581,20 +20590,20 @@
     <row r="247" spans="1:11" ht="14">
       <c r="A247" s="15">
         <f t="shared" si="10"/>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="12"/>
-        <v>4082</v>
+        <v>4072</v>
       </c>
       <c r="C247" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F247" s="83"/>
       <c r="G247" s="2" t="s">
@@ -20603,8 +20612,8 @@
       <c r="H247" s="16" t="s">
         <v>2385</v>
       </c>
-      <c r="I247" s="16" t="s">
-        <v>2340</v>
+      <c r="I247" s="7" t="s">
+        <v>2339</v>
       </c>
       <c r="J247" s="16" t="s">
         <v>2322</v>
@@ -20616,20 +20625,20 @@
     <row r="248" spans="1:11" ht="14">
       <c r="A248" s="15">
         <f t="shared" si="10"/>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="12"/>
-        <v>4110</v>
+        <v>4082</v>
       </c>
       <c r="C248" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F248" s="83"/>
       <c r="G248" s="2" t="s">
@@ -20639,7 +20648,7 @@
         <v>2385</v>
       </c>
       <c r="I248" s="16" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="J248" s="16" t="s">
         <v>2322</v>
@@ -20651,20 +20660,20 @@
     <row r="249" spans="1:11" ht="14">
       <c r="A249" s="15">
         <f t="shared" si="10"/>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="12"/>
-        <v>4120</v>
+        <v>4110</v>
       </c>
       <c r="C249" s="3">
         <v>10</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F249" s="83"/>
       <c r="G249" s="2" t="s">
@@ -20674,7 +20683,7 @@
         <v>2385</v>
       </c>
       <c r="I249" s="16" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="J249" s="16" t="s">
         <v>2322</v>
@@ -20686,20 +20695,20 @@
     <row r="250" spans="1:11" ht="14">
       <c r="A250" s="15">
         <f t="shared" si="10"/>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="12"/>
-        <v>4130</v>
+        <v>4120</v>
       </c>
       <c r="C250" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F250" s="83"/>
       <c r="G250" s="2" t="s">
@@ -20709,7 +20718,7 @@
         <v>2385</v>
       </c>
       <c r="I250" s="16" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="J250" s="16" t="s">
         <v>2322</v>
@@ -20718,26 +20727,25 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="52.5" customHeight="1">
+    <row r="251" spans="1:11" ht="14">
       <c r="A251" s="15">
         <f t="shared" si="10"/>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="1">
-        <v>4137</v>
+        <f t="shared" si="12"/>
+        <v>4130</v>
       </c>
       <c r="C251" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="F251" s="224" t="s">
-        <v>592</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F251" s="83"/>
       <c r="G251" s="2" t="s">
         <v>2477</v>
       </c>
@@ -20745,7 +20753,7 @@
         <v>2385</v>
       </c>
       <c r="I251" s="16" t="s">
-        <v>2386</v>
+        <v>2349</v>
       </c>
       <c r="J251" s="16" t="s">
         <v>2322</v>
@@ -20754,25 +20762,25 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="14">
+    <row r="252" spans="1:11" ht="52.5" customHeight="1">
       <c r="A252" s="15">
         <f t="shared" si="10"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B252" s="1">
-        <v>4187</v>
+        <v>4137</v>
       </c>
       <c r="C252" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="F252" s="83" t="s">
-        <v>365</v>
+        <v>591</v>
+      </c>
+      <c r="F252" s="224" t="s">
+        <v>592</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>2477</v>
@@ -20781,7 +20789,7 @@
         <v>2385</v>
       </c>
       <c r="I252" s="16" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="J252" s="16" t="s">
         <v>2322</v>
@@ -20790,25 +20798,25 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="358">
+    <row r="253" spans="1:11" ht="14">
       <c r="A253" s="15">
         <f t="shared" si="10"/>
-        <v>232</v>
-      </c>
-      <c r="B253" s="3">
-        <v>4215</v>
-      </c>
-      <c r="C253" s="18">
-        <v>2</v>
-      </c>
-      <c r="D253" s="114" t="s">
-        <v>595</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="F253" s="47" t="s">
-        <v>597</v>
+        <v>231</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4187</v>
+      </c>
+      <c r="C253" s="3">
+        <v>28</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F253" s="83" t="s">
+        <v>365</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>2477</v>
@@ -20817,34 +20825,34 @@
         <v>2385</v>
       </c>
       <c r="I253" s="16" t="s">
-        <v>2346</v>
+        <v>2387</v>
       </c>
       <c r="J253" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K253" s="16" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="28">
+      <c r="K253" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="358">
       <c r="A254" s="15">
         <f t="shared" si="10"/>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B254" s="3">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="C254" s="18">
-        <v>28</v>
-      </c>
-      <c r="D254" s="115" t="s">
-        <v>598</v>
+        <v>2</v>
+      </c>
+      <c r="D254" s="114" t="s">
+        <v>595</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F254" s="47" t="s">
-        <v>368</v>
+        <v>597</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>2477</v>
@@ -20853,34 +20861,34 @@
         <v>2385</v>
       </c>
       <c r="I254" s="16" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="J254" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="K254" s="7" t="s">
-        <v>2591</v>
+      <c r="K254" s="16" t="s">
+        <v>2325</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="28">
       <c r="A255" s="15">
         <f t="shared" si="10"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B255" s="3">
-        <v>4245</v>
+        <v>4217</v>
       </c>
       <c r="C255" s="18">
-        <v>9</v>
-      </c>
-      <c r="D255" s="31" t="s">
-        <v>600</v>
+        <v>28</v>
+      </c>
+      <c r="D255" s="115" t="s">
+        <v>598</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F255" s="83" t="s">
-        <v>371</v>
+        <v>599</v>
+      </c>
+      <c r="F255" s="47" t="s">
+        <v>368</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>2477</v>
@@ -20889,46 +20897,46 @@
         <v>2385</v>
       </c>
       <c r="I255" s="16" t="s">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="J255" s="16" t="s">
         <v>2322</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="14">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="28">
       <c r="A256" s="15">
         <f t="shared" si="10"/>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B256" s="3">
-        <v>4254</v>
+        <v>4245</v>
       </c>
       <c r="C256" s="18">
-        <v>8</v>
-      </c>
-      <c r="D256" s="19" t="s">
-        <v>602</v>
+        <v>9</v>
+      </c>
+      <c r="D256" s="31" t="s">
+        <v>600</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="F256" s="88" t="s">
-        <v>604</v>
+        <v>601</v>
+      </c>
+      <c r="F256" s="83" t="s">
+        <v>371</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H256" s="16" t="s">
-        <v>2398</v>
+        <v>2385</v>
       </c>
       <c r="I256" s="16" t="s">
-        <v>2399</v>
+        <v>2344</v>
       </c>
       <c r="J256" s="16" t="s">
-        <v>2332</v>
+        <v>2322</v>
       </c>
       <c r="K256" s="7" t="s">
         <v>2595</v>
@@ -20937,95 +20945,95 @@
     <row r="257" spans="1:12" ht="14">
       <c r="A257" s="15">
         <f t="shared" si="10"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B257" s="3">
-        <v>4262</v>
+        <v>4254</v>
       </c>
       <c r="C257" s="18">
         <v>8</v>
       </c>
       <c r="D257" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="F257" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="G257" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="F257" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>2477</v>
+      </c>
       <c r="H257" s="16" t="s">
-        <v>2330</v>
+        <v>2398</v>
+      </c>
+      <c r="I257" s="16" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J257" s="16" t="s">
+        <v>2332</v>
       </c>
       <c r="K257" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="28">
+    <row r="258" spans="1:12" ht="14">
       <c r="A258" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B258" s="3">
-        <v>4270</v>
+        <v>4262</v>
       </c>
       <c r="C258" s="18">
-        <v>28</v>
-      </c>
-      <c r="D258" s="115" t="s">
-        <v>608</v>
+        <v>8</v>
+      </c>
+      <c r="D258" s="19" t="s">
+        <v>605</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="F258" s="100" t="s">
-        <v>610</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>2477</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="F258" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G258" s="2"/>
       <c r="H258" s="16" t="s">
-        <v>2449</v>
-      </c>
-      <c r="I258" s="16" t="s">
-        <v>2352</v>
-      </c>
-      <c r="J258" s="16" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="28">
       <c r="A259" s="15">
         <f t="shared" si="10"/>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B259" s="3">
-        <v>4298</v>
+        <v>4270</v>
       </c>
       <c r="C259" s="18">
         <v>28</v>
       </c>
       <c r="D259" s="115" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F259" s="100" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H259" s="16" t="s">
-        <v>2318</v>
+        <v>2449</v>
       </c>
       <c r="I259" s="16" t="s">
-        <v>2572</v>
+        <v>2352</v>
       </c>
       <c r="J259" s="16" t="s">
         <v>2322</v>
@@ -21034,62 +21042,62 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="260" spans="1:12" s="16" customFormat="1" ht="14">
+    <row r="260" spans="1:12" ht="28">
       <c r="A260" s="15">
         <f t="shared" si="10"/>
-        <v>239</v>
-      </c>
-      <c r="B260" s="15">
-        <f>B259+C259</f>
-        <v>4326</v>
-      </c>
-      <c r="C260" s="3">
-        <v>2</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E260" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="F260" s="83" t="s">
-        <v>120</v>
+        <v>238</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4298</v>
+      </c>
+      <c r="C260" s="18">
+        <v>28</v>
+      </c>
+      <c r="D260" s="115" t="s">
+        <v>611</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F260" s="100" t="s">
+        <v>531</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>2477</v>
       </c>
       <c r="H260" s="16" t="s">
-        <v>2347</v>
+        <v>2318</v>
       </c>
       <c r="I260" s="16" t="s">
-        <v>2370</v>
+        <v>2572</v>
       </c>
       <c r="J260" s="16" t="s">
-        <v>2363</v>
-      </c>
-      <c r="K260" s="16" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" ht="14">
+        <v>2322</v>
+      </c>
+      <c r="K260" s="7" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" s="16" customFormat="1" ht="14">
       <c r="A261" s="15">
         <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="B261" s="3">
-        <v>4328</v>
-      </c>
-      <c r="C261" s="18">
-        <v>28</v>
-      </c>
-      <c r="D261" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>616</v>
+        <v>239</v>
+      </c>
+      <c r="B261" s="15">
+        <f>B260+C260</f>
+        <v>4326</v>
+      </c>
+      <c r="C261" s="3">
+        <v>2</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>614</v>
       </c>
       <c r="F261" s="83" t="s">
-        <v>617</v>
+        <v>120</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>2477</v>
@@ -21098,62 +21106,70 @@
         <v>2347</v>
       </c>
       <c r="I261" s="16" t="s">
-        <v>2570</v>
+        <v>2370</v>
       </c>
       <c r="J261" s="16" t="s">
         <v>2363</v>
       </c>
-      <c r="K261" s="7" t="s">
-        <v>2594</v>
+      <c r="K261" s="16" t="s">
+        <v>2593</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="14">
       <c r="A262" s="15">
         <f t="shared" si="10"/>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B262" s="3">
-        <v>4356</v>
+        <v>4328</v>
       </c>
       <c r="C262" s="18">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D262" s="19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F262" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="G262" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>2477</v>
+      </c>
       <c r="H262" s="16" t="s">
-        <v>2330</v>
+        <v>2347</v>
+      </c>
+      <c r="I262" s="16" t="s">
+        <v>2570</v>
+      </c>
+      <c r="J262" s="16" t="s">
+        <v>2363</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="14">
       <c r="A263" s="15">
         <f t="shared" si="10"/>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B263" s="3">
-        <v>4359</v>
+        <v>4356</v>
       </c>
       <c r="C263" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F263" s="83" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="16" t="s">
@@ -21166,22 +21182,22 @@
     <row r="264" spans="1:12" ht="14">
       <c r="A264" s="15">
         <f t="shared" si="10"/>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B264" s="3">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="C264" s="18">
         <v>1</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F264" s="83" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="16" t="s">
@@ -21194,22 +21210,22 @@
     <row r="265" spans="1:12" ht="14">
       <c r="A265" s="15">
         <f t="shared" si="10"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B265" s="3">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="C265" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F265" s="83" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G265" s="2"/>
       <c r="H265" s="16" t="s">
@@ -21222,22 +21238,22 @@
     <row r="266" spans="1:12" ht="14">
       <c r="A266" s="15">
         <f t="shared" si="10"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B266" s="3">
-        <v>4369</v>
+        <v>4361</v>
       </c>
       <c r="C266" s="18">
         <v>8</v>
       </c>
       <c r="D266" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F266" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="16" t="s">
@@ -21247,109 +21263,100 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="27.75" customHeight="1">
+    <row r="267" spans="1:12" ht="14">
       <c r="A267" s="15">
         <f t="shared" si="10"/>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B267" s="3">
-        <v>4377</v>
+        <v>4369</v>
       </c>
       <c r="C267" s="18">
-        <v>50</v>
-      </c>
-      <c r="D267" s="16" t="s">
-        <v>632</v>
+        <v>8</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>630</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F267" s="83" t="s">
-        <v>634</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>2477</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="G267" s="2"/>
       <c r="H267" s="16" t="s">
-        <v>2318</v>
-      </c>
-      <c r="I267" s="16" t="s">
-        <v>2335</v>
-      </c>
-      <c r="J267" s="16" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="K267" s="7" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" ht="27.75" customHeight="1">
       <c r="A268" s="15">
         <f t="shared" si="10"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B268" s="3">
-        <v>4427</v>
+        <v>4377</v>
       </c>
       <c r="C268" s="18">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D268" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="E268" s="21" t="s">
-        <v>2538</v>
-      </c>
-      <c r="F268" s="83"/>
-      <c r="G268" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="F268" s="83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>2477</v>
+      </c>
       <c r="H268" s="16" t="s">
-        <v>2487</v>
+        <v>2318</v>
       </c>
       <c r="I268" s="16" t="s">
-        <v>2540</v>
+        <v>2335</v>
       </c>
       <c r="J268" s="16" t="s">
-        <v>2361</v>
-      </c>
-      <c r="K268" s="16" t="s">
-        <v>2542</v>
-      </c>
-      <c r="L268" s="7" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="14">
+        <v>2322</v>
+      </c>
+      <c r="K268" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="15">
         <f t="shared" si="10"/>
-        <v>248</v>
-      </c>
-      <c r="B269" s="269">
-        <v>4430</v>
-      </c>
-      <c r="C269" s="270">
-        <v>1</v>
-      </c>
-      <c r="D269" s="271" t="s">
-        <v>636</v>
-      </c>
-      <c r="E269" s="272" t="s">
-        <v>637</v>
-      </c>
-      <c r="F269" s="273" t="s">
-        <v>638</v>
-      </c>
-      <c r="G269" s="268"/>
+        <v>247</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4427</v>
+      </c>
+      <c r="C269" s="18">
+        <v>3</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="E269" s="21" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F269" s="83"/>
+      <c r="G269" s="2"/>
       <c r="H269" s="16" t="s">
-        <v>2578</v>
+        <v>2487</v>
       </c>
       <c r="I269" s="16" t="s">
-        <v>2579</v>
+        <v>2540</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>2443</v>
-      </c>
-      <c r="K269" s="7" t="s">
-        <v>2595</v>
+        <v>2361</v>
+      </c>
+      <c r="K269" s="16" t="s">
+        <v>2542</v>
       </c>
       <c r="L269" s="7" t="s">
         <v>2575</v>
@@ -21358,19 +21365,19 @@
     <row r="270" spans="1:12" ht="14">
       <c r="A270" s="15">
         <f t="shared" si="10"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B270" s="269">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="C270" s="270">
         <v>1</v>
       </c>
       <c r="D270" s="271" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E270" s="272" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F270" s="273" t="s">
         <v>638</v>
@@ -21380,7 +21387,7 @@
         <v>2578</v>
       </c>
       <c r="I270" s="16" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="J270" s="16" t="s">
         <v>2443</v>
@@ -21395,19 +21402,19 @@
     <row r="271" spans="1:12" ht="14">
       <c r="A271" s="15">
         <f t="shared" si="10"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271" s="269">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="C271" s="270">
         <v>1</v>
       </c>
       <c r="D271" s="271" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E271" s="272" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F271" s="273" t="s">
         <v>638</v>
@@ -21417,7 +21424,7 @@
         <v>2578</v>
       </c>
       <c r="I271" s="16" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="J271" s="16" t="s">
         <v>2443</v>
@@ -21432,19 +21439,19 @@
     <row r="272" spans="1:12" ht="14">
       <c r="A272" s="15">
         <f t="shared" si="10"/>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B272" s="269">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="C272" s="270">
         <v>1</v>
       </c>
       <c r="D272" s="271" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E272" s="272" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F272" s="273" t="s">
         <v>638</v>
@@ -21454,7 +21461,7 @@
         <v>2578</v>
       </c>
       <c r="I272" s="16" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="J272" s="16" t="s">
         <v>2443</v>
@@ -21469,19 +21476,19 @@
     <row r="273" spans="1:12" ht="14">
       <c r="A273" s="15">
         <f t="shared" si="10"/>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B273" s="269">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="C273" s="270">
         <v>1</v>
       </c>
       <c r="D273" s="271" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E273" s="272" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F273" s="273" t="s">
         <v>638</v>
@@ -21491,7 +21498,7 @@
         <v>2578</v>
       </c>
       <c r="I273" s="16" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="J273" s="16" t="s">
         <v>2443</v>
@@ -21506,19 +21513,19 @@
     <row r="274" spans="1:12" ht="14">
       <c r="A274" s="15">
         <f t="shared" si="10"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B274" s="269">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="C274" s="270">
         <v>1</v>
       </c>
       <c r="D274" s="271" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E274" s="272" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F274" s="273" t="s">
         <v>638</v>
@@ -21528,7 +21535,7 @@
         <v>2578</v>
       </c>
       <c r="I274" s="16" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J274" s="16" t="s">
         <v>2443</v>
@@ -21543,19 +21550,19 @@
     <row r="275" spans="1:12" ht="14">
       <c r="A275" s="15">
         <f t="shared" si="10"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B275" s="269">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="C275" s="270">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D275" s="271" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E275" s="272" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F275" s="273" t="s">
         <v>638</v>
@@ -21565,10 +21572,10 @@
         <v>2578</v>
       </c>
       <c r="I275" s="16" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="K275" s="7" t="s">
         <v>2595</v>
@@ -21580,19 +21587,19 @@
     <row r="276" spans="1:12" ht="14">
       <c r="A276" s="15">
         <f t="shared" si="10"/>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B276" s="269">
-        <v>4444</v>
+        <v>4436</v>
       </c>
       <c r="C276" s="270">
         <v>8</v>
       </c>
       <c r="D276" s="271" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E276" s="272" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F276" s="273" t="s">
         <v>638</v>
@@ -21602,7 +21609,7 @@
         <v>2578</v>
       </c>
       <c r="I276" s="16" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="J276" s="16" t="s">
         <v>2444</v>
@@ -21617,19 +21624,19 @@
     <row r="277" spans="1:12" ht="14">
       <c r="A277" s="15">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B277" s="269">
-        <v>4452</v>
+        <v>4444</v>
       </c>
       <c r="C277" s="270">
         <v>8</v>
       </c>
       <c r="D277" s="271" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E277" s="272" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F277" s="273" t="s">
         <v>638</v>
@@ -21639,7 +21646,7 @@
         <v>2578</v>
       </c>
       <c r="I277" s="16" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="J277" s="16" t="s">
         <v>2444</v>
@@ -21654,19 +21661,19 @@
     <row r="278" spans="1:12" ht="14">
       <c r="A278" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B278" s="269">
-        <v>4460</v>
+        <v>4452</v>
       </c>
       <c r="C278" s="270">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D278" s="271" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E278" s="272" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F278" s="273" t="s">
         <v>638</v>
@@ -21676,10 +21683,10 @@
         <v>2578</v>
       </c>
       <c r="I278" s="16" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="J278" s="16" t="s">
-        <v>2382</v>
+        <v>2444</v>
       </c>
       <c r="K278" s="7" t="s">
         <v>2595</v>
@@ -21690,51 +21697,60 @@
     </row>
     <row r="279" spans="1:12" ht="14">
       <c r="A279" s="15">
-        <f t="shared" ref="A279:A280" si="13">A278+1</f>
-        <v>258</v>
-      </c>
-      <c r="B279" s="3">
-        <v>4480</v>
-      </c>
-      <c r="C279" s="18">
-        <v>250</v>
-      </c>
-      <c r="D279" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="E279" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="F279" s="83" t="s">
-        <v>659</v>
-      </c>
-      <c r="G279" s="2"/>
+        <f t="shared" si="10"/>
+        <v>257</v>
+      </c>
+      <c r="B279" s="269">
+        <v>4460</v>
+      </c>
+      <c r="C279" s="270">
+        <v>20</v>
+      </c>
+      <c r="D279" s="271" t="s">
+        <v>655</v>
+      </c>
+      <c r="E279" s="272" t="s">
+        <v>656</v>
+      </c>
+      <c r="F279" s="273" t="s">
+        <v>638</v>
+      </c>
+      <c r="G279" s="268"/>
       <c r="H279" s="16" t="s">
-        <v>2330</v>
+        <v>2578</v>
+      </c>
+      <c r="I279" s="16" t="s">
+        <v>2588</v>
+      </c>
+      <c r="J279" s="16" t="s">
+        <v>2382</v>
       </c>
       <c r="K279" s="7" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" ht="28">
+      <c r="L279" s="7" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="14">
       <c r="A280" s="15">
-        <f t="shared" si="13"/>
-        <v>259</v>
-      </c>
-      <c r="B280" s="15">
-        <v>4730</v>
-      </c>
-      <c r="C280" s="3">
-        <v>271</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>661</v>
+        <f t="shared" ref="A280:A281" si="13">A279+1</f>
+        <v>258</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4480</v>
+      </c>
+      <c r="C280" s="18">
+        <v>250</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>658</v>
       </c>
       <c r="F280" s="83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G280" s="2"/>
       <c r="H280" s="16" t="s">
@@ -21744,42 +21760,70 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
-      <c r="B281" s="15"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="9"/>
-      <c r="F281" s="83"/>
+    <row r="281" spans="1:12" ht="28">
+      <c r="A281" s="15">
+        <f t="shared" si="13"/>
+        <v>259</v>
+      </c>
+      <c r="B281" s="15">
+        <v>4730</v>
+      </c>
+      <c r="C281" s="3">
+        <v>271</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="F281" s="83" t="s">
+        <v>662</v>
+      </c>
       <c r="G281" s="2"/>
-    </row>
-    <row r="282" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A282" s="15"/>
-      <c r="B282" s="14">
-        <f>B280+C280 - 1</f>
+      <c r="H281" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="K281" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
+      <c r="B282" s="15"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="83"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A283" s="15"/>
+      <c r="B283" s="14">
+        <f>B281+C281 - 1</f>
         <v>5000</v>
       </c>
-      <c r="C282" s="77" t="s">
+      <c r="C283" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
-      <c r="F282" s="227"/>
-      <c r="G282" s="9"/>
-    </row>
-    <row r="283" spans="1:12" ht="6" customHeight="1">
-      <c r="F283" s="89"/>
-    </row>
-    <row r="284" spans="1:12">
-      <c r="A284" s="90"/>
-      <c r="B284" s="220"/>
-      <c r="C284" s="221"/>
-      <c r="D284" s="222"/>
-      <c r="E284" s="222"/>
-      <c r="F284" s="223"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="227"/>
+      <c r="G283" s="9"/>
+    </row>
+    <row r="284" spans="1:12" ht="6" customHeight="1">
+      <c r="F284" s="89"/>
+    </row>
+    <row r="285" spans="1:12">
+      <c r="A285" s="90"/>
+      <c r="B285" s="220"/>
+      <c r="C285" s="221"/>
+      <c r="D285" s="222"/>
+      <c r="E285" s="222"/>
+      <c r="F285" s="223"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A5:L280" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A5:L281" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -21800,7 +21844,7 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A149:F149"/>
     <mergeCell ref="A114:F114"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -68007,15 +68051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c07487fc32f7ac2d3b3707e982dea906">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be9eaf82d0c074f79785b0acc776d2a9" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -68218,25 +68253,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3F3134-699E-462F-8D9F-EA7A8DE51B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68255,15 +68291,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A36FDD-FA0C-40EF-989B-74F1F7876F18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -68278,4 +68314,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
+++ b/input/images/IJE_File_Layouts_Version_2021_FHIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vrdr/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E0A2CB-557E-404F-8FD2-C294C0B172BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BF0E40-26CF-694D-BBA2-D1E5042B8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="63620" windowHeight="27760" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
